--- a/files/tabel/tabel-2018-03.xlsx
+++ b/files/tabel/tabel-2018-03.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="155">
   <si>
     <t>(подпись)</t>
   </si>
@@ -228,7 +228,10 @@
     <t>МАРТА</t>
   </si>
   <si>
-    <t>20/04/2018</t>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>марта</t>
@@ -21650,11 +21653,11 @@
       </c>
       <c r="CK15" s="98"/>
       <c r="CL15" s="97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM15" s="98"/>
       <c r="CN15" s="97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CO15" s="98"/>
       <c r="CP15" s="97" t="s">
@@ -21950,7 +21953,7 @@
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -21964,19 +21967,19 @@
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
       <c r="R18" s="69"/>
       <c r="S18" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
       <c r="V18" s="69"/>
       <c r="W18" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
@@ -21985,137 +21988,137 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="69"/>
       <c r="AD18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE18" s="61"/>
       <c r="AF18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG18" s="61"/>
       <c r="AH18" s="5675" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI18" s="61"/>
       <c r="AJ18" s="5676" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" s="61"/>
       <c r="AL18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM18" s="61"/>
       <c r="AN18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO18" s="61"/>
       <c r="AP18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ18" s="61"/>
       <c r="AR18" s="5677" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS18" s="61"/>
       <c r="AT18" s="5678" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU18" s="61"/>
       <c r="AV18" s="5679" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW18" s="61"/>
       <c r="AX18" s="5680" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY18" s="61"/>
       <c r="AZ18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA18" s="61"/>
       <c r="BB18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC18" s="61"/>
       <c r="BD18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE18" s="61"/>
       <c r="BF18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG18" s="61"/>
       <c r="BH18" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI18" s="62"/>
       <c r="BJ18" s="62"/>
       <c r="BK18" s="62"/>
       <c r="BL18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM18" s="61"/>
       <c r="BN18" s="5681" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO18" s="61"/>
       <c r="BP18" s="5682" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ18" s="61"/>
       <c r="BR18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS18" s="61"/>
       <c r="BT18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU18" s="61"/>
       <c r="BV18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW18" s="61"/>
       <c r="BX18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY18" s="61"/>
       <c r="BZ18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA18" s="61"/>
       <c r="CB18" s="5683" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC18" s="61"/>
       <c r="CD18" s="5684" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE18" s="61"/>
       <c r="CF18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG18" s="61"/>
       <c r="CH18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI18" s="61"/>
       <c r="CJ18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK18" s="61"/>
       <c r="CL18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM18" s="61"/>
       <c r="CN18" s="61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO18" s="61"/>
       <c r="CP18" s="5685" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ18" s="61"/>
       <c r="CR18" s="62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS18" s="62"/>
       <c r="CT18" s="62"/>
@@ -22160,11 +22163,11 @@
       </c>
       <c r="AG19" s="61"/>
       <c r="AH19" s="5675" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI19" s="61"/>
       <c r="AJ19" s="5676" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" s="61"/>
       <c r="AL19" s="61" t="n">
@@ -22180,19 +22183,19 @@
       </c>
       <c r="AQ19" s="61"/>
       <c r="AR19" s="5677" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS19" s="61"/>
       <c r="AT19" s="5678" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU19" s="61"/>
       <c r="AV19" s="5679" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW19" s="61"/>
       <c r="AX19" s="5680" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY19" s="61"/>
       <c r="AZ19" s="61" t="n">
@@ -22220,11 +22223,11 @@
       </c>
       <c r="BM19" s="61"/>
       <c r="BN19" s="5681" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO19" s="61"/>
       <c r="BP19" s="5682" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ19" s="61"/>
       <c r="BR19" s="61" t="n">
@@ -22248,11 +22251,11 @@
       </c>
       <c r="CA19" s="61"/>
       <c r="CB19" s="5683" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC19" s="61"/>
       <c r="CD19" s="5684" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE19" s="61"/>
       <c r="CF19" s="61" t="n">
@@ -22276,7 +22279,7 @@
       </c>
       <c r="CO19" s="61"/>
       <c r="CP19" s="5685" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ19" s="61"/>
       <c r="CR19" s="62"/>
@@ -22290,7 +22293,7 @@
       </c>
       <c r="B20" s="132"/>
       <c r="C20" s="133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="135"/>
@@ -22304,19 +22307,19 @@
       <c r="M20" s="143"/>
       <c r="N20" s="144"/>
       <c r="O20" s="145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P20" s="146"/>
       <c r="Q20" s="147"/>
       <c r="R20" s="148"/>
       <c r="S20" s="149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T20" s="150"/>
       <c r="U20" s="151"/>
       <c r="V20" s="152"/>
       <c r="W20" s="153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X20" s="154"/>
       <c r="Y20" s="155"/>
@@ -22325,137 +22328,137 @@
       <c r="AB20" s="158"/>
       <c r="AC20" s="159"/>
       <c r="AD20" s="160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE20" s="161"/>
       <c r="AF20" s="162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG20" s="163"/>
       <c r="AH20" s="5686" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI20" s="165"/>
       <c r="AJ20" s="5687" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" s="167"/>
       <c r="AL20" s="168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM20" s="169"/>
       <c r="AN20" s="170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO20" s="171"/>
       <c r="AP20" s="172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ20" s="173"/>
       <c r="AR20" s="5688" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS20" s="175"/>
       <c r="AT20" s="5689" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU20" s="177"/>
       <c r="AV20" s="5690" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW20" s="179"/>
       <c r="AX20" s="5691" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY20" s="181"/>
       <c r="AZ20" s="182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA20" s="183"/>
       <c r="BB20" s="184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC20" s="185"/>
       <c r="BD20" s="186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE20" s="187"/>
       <c r="BF20" s="188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG20" s="189"/>
       <c r="BH20" s="190" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI20" s="191"/>
       <c r="BJ20" s="192"/>
       <c r="BK20" s="193"/>
       <c r="BL20" s="194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM20" s="195"/>
       <c r="BN20" s="5692" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO20" s="197"/>
       <c r="BP20" s="5693" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ20" s="199"/>
       <c r="BR20" s="200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS20" s="201"/>
       <c r="BT20" s="202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU20" s="203"/>
       <c r="BV20" s="204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW20" s="205"/>
       <c r="BX20" s="206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY20" s="207"/>
       <c r="BZ20" s="208" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA20" s="209"/>
       <c r="CB20" s="5694" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC20" s="211"/>
       <c r="CD20" s="5695" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE20" s="213"/>
       <c r="CF20" s="214" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG20" s="215"/>
       <c r="CH20" s="216" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI20" s="217"/>
       <c r="CJ20" s="218" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK20" s="219"/>
       <c r="CL20" s="220" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM20" s="221"/>
       <c r="CN20" s="222" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO20" s="223"/>
       <c r="CP20" s="5696" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ20" s="225"/>
       <c r="CR20" s="226" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS20" s="227"/>
       <c r="CT20" s="228"/>
@@ -22500,11 +22503,11 @@
       </c>
       <c r="AG21" s="262"/>
       <c r="AH21" s="5686" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI21" s="264"/>
       <c r="AJ21" s="5687" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" s="266"/>
       <c r="AL21" s="267" t="n">
@@ -22520,19 +22523,19 @@
       </c>
       <c r="AQ21" s="272"/>
       <c r="AR21" s="5688" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS21" s="274"/>
       <c r="AT21" s="5689" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU21" s="276"/>
       <c r="AV21" s="5690" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW21" s="278"/>
       <c r="AX21" s="5691" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY21" s="280"/>
       <c r="AZ21" s="281" t="n">
@@ -22560,11 +22563,11 @@
       </c>
       <c r="BM21" s="294"/>
       <c r="BN21" s="5692" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO21" s="296"/>
       <c r="BP21" s="5693" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ21" s="298"/>
       <c r="BR21" s="299" t="n">
@@ -22588,11 +22591,11 @@
       </c>
       <c r="CA21" s="308"/>
       <c r="CB21" s="5694" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC21" s="310"/>
       <c r="CD21" s="5695" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE21" s="312"/>
       <c r="CF21" s="313" t="n">
@@ -22616,7 +22619,7 @@
       </c>
       <c r="CO21" s="322"/>
       <c r="CP21" s="5696" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ21" s="324"/>
       <c r="CR21" s="325"/>
@@ -22630,7 +22633,7 @@
       </c>
       <c r="B22" s="330"/>
       <c r="C22" s="331" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="332"/>
       <c r="E22" s="333"/>
@@ -22644,19 +22647,19 @@
       <c r="M22" s="341"/>
       <c r="N22" s="342"/>
       <c r="O22" s="343" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" s="344"/>
       <c r="Q22" s="345"/>
       <c r="R22" s="346"/>
       <c r="S22" s="347" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" s="348"/>
       <c r="U22" s="349"/>
       <c r="V22" s="350"/>
       <c r="W22" s="351" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" s="352"/>
       <c r="Y22" s="353"/>
@@ -22665,137 +22668,137 @@
       <c r="AB22" s="356"/>
       <c r="AC22" s="357"/>
       <c r="AD22" s="358" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE22" s="359"/>
       <c r="AF22" s="360" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG22" s="361"/>
       <c r="AH22" s="5697" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI22" s="363"/>
       <c r="AJ22" s="5698" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" s="365"/>
       <c r="AL22" s="366" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM22" s="367"/>
       <c r="AN22" s="368" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO22" s="369"/>
       <c r="AP22" s="370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ22" s="371"/>
       <c r="AR22" s="5699" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS22" s="373"/>
       <c r="AT22" s="5700" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU22" s="375"/>
       <c r="AV22" s="5701" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW22" s="377"/>
       <c r="AX22" s="5702" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY22" s="379"/>
       <c r="AZ22" s="380" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA22" s="381"/>
       <c r="BB22" s="382" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC22" s="383"/>
       <c r="BD22" s="384" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE22" s="385"/>
       <c r="BF22" s="386" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG22" s="387"/>
       <c r="BH22" s="388" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI22" s="389"/>
       <c r="BJ22" s="390"/>
       <c r="BK22" s="391"/>
       <c r="BL22" s="392" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM22" s="393"/>
       <c r="BN22" s="5703" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO22" s="395"/>
       <c r="BP22" s="5704" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ22" s="397"/>
       <c r="BR22" s="398" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS22" s="399"/>
       <c r="BT22" s="400" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU22" s="401"/>
       <c r="BV22" s="402" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW22" s="403"/>
       <c r="BX22" s="404" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY22" s="405"/>
       <c r="BZ22" s="406" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA22" s="407"/>
       <c r="CB22" s="5705" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC22" s="409"/>
       <c r="CD22" s="5706" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE22" s="411"/>
       <c r="CF22" s="412" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG22" s="413"/>
       <c r="CH22" s="414" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI22" s="415"/>
       <c r="CJ22" s="416" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK22" s="417"/>
       <c r="CL22" s="418" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM22" s="419"/>
       <c r="CN22" s="420" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO22" s="421"/>
       <c r="CP22" s="5707" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ22" s="423"/>
       <c r="CR22" s="424" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS22" s="425"/>
       <c r="CT22" s="426"/>
@@ -22840,11 +22843,11 @@
       </c>
       <c r="AG23" s="460"/>
       <c r="AH23" s="5697" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI23" s="462"/>
       <c r="AJ23" s="5698" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" s="464"/>
       <c r="AL23" s="465" t="n">
@@ -22860,19 +22863,19 @@
       </c>
       <c r="AQ23" s="470"/>
       <c r="AR23" s="5699" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS23" s="472"/>
       <c r="AT23" s="5700" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU23" s="474"/>
       <c r="AV23" s="5701" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW23" s="476"/>
       <c r="AX23" s="5702" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY23" s="478"/>
       <c r="AZ23" s="479" t="n">
@@ -22900,11 +22903,11 @@
       </c>
       <c r="BM23" s="492"/>
       <c r="BN23" s="5703" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO23" s="494"/>
       <c r="BP23" s="5704" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ23" s="496"/>
       <c r="BR23" s="497" t="n">
@@ -22928,11 +22931,11 @@
       </c>
       <c r="CA23" s="506"/>
       <c r="CB23" s="5705" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC23" s="508"/>
       <c r="CD23" s="5706" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE23" s="510"/>
       <c r="CF23" s="511" t="n">
@@ -22956,7 +22959,7 @@
       </c>
       <c r="CO23" s="520"/>
       <c r="CP23" s="5707" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ23" s="522"/>
       <c r="CR23" s="523"/>
@@ -22970,7 +22973,7 @@
       </c>
       <c r="B24" s="528"/>
       <c r="C24" s="529" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="530"/>
       <c r="E24" s="531"/>
@@ -22984,19 +22987,19 @@
       <c r="M24" s="539"/>
       <c r="N24" s="540"/>
       <c r="O24" s="541" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P24" s="542"/>
       <c r="Q24" s="543"/>
       <c r="R24" s="544"/>
       <c r="S24" s="545" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" s="546"/>
       <c r="U24" s="547"/>
       <c r="V24" s="548"/>
       <c r="W24" s="549" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" s="550"/>
       <c r="Y24" s="551"/>
@@ -23005,137 +23008,137 @@
       <c r="AB24" s="554"/>
       <c r="AC24" s="555"/>
       <c r="AD24" s="5708" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE24" s="557"/>
       <c r="AF24" s="5709" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" s="559"/>
       <c r="AH24" s="5710" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI24" s="561"/>
       <c r="AJ24" s="5711" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK24" s="563"/>
       <c r="AL24" s="5712" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM24" s="565"/>
       <c r="AN24" s="5713" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO24" s="567"/>
       <c r="AP24" s="5714" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ24" s="569"/>
       <c r="AR24" s="5715" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS24" s="571"/>
       <c r="AT24" s="5716" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU24" s="573"/>
       <c r="AV24" s="5717" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW24" s="575"/>
       <c r="AX24" s="5718" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY24" s="577"/>
       <c r="AZ24" s="5719" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA24" s="579"/>
       <c r="BB24" s="5720" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BC24" s="581"/>
       <c r="BD24" s="5721" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE24" s="583"/>
       <c r="BF24" s="5722" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BG24" s="585"/>
       <c r="BH24" s="586" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BI24" s="587"/>
       <c r="BJ24" s="588"/>
       <c r="BK24" s="589"/>
       <c r="BL24" s="5723" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM24" s="591"/>
       <c r="BN24" s="5724" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO24" s="593"/>
       <c r="BP24" s="5725" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ24" s="595"/>
       <c r="BR24" s="5726" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS24" s="597"/>
       <c r="BT24" s="5727" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BU24" s="599"/>
       <c r="BV24" s="5728" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BW24" s="601"/>
       <c r="BX24" s="5729" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BY24" s="603"/>
       <c r="BZ24" s="5730" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA24" s="605"/>
       <c r="CB24" s="5731" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CC24" s="607"/>
       <c r="CD24" s="5732" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CE24" s="609"/>
       <c r="CF24" s="5733" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CG24" s="611"/>
       <c r="CH24" s="5734" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CI24" s="613"/>
       <c r="CJ24" s="5735" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CK24" s="615"/>
       <c r="CL24" s="5736" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CM24" s="617"/>
       <c r="CN24" s="5737" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CO24" s="619"/>
       <c r="CP24" s="5738" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CQ24" s="621"/>
       <c r="CR24" s="622" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CS24" s="623"/>
       <c r="CT24" s="624"/>
@@ -23172,63 +23175,63 @@
       <c r="AB25" s="653"/>
       <c r="AC25" s="654"/>
       <c r="AD25" s="5708" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE25" s="656"/>
       <c r="AF25" s="5709" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG25" s="658"/>
       <c r="AH25" s="5710" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI25" s="660"/>
       <c r="AJ25" s="5711" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" s="662"/>
       <c r="AL25" s="5712" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM25" s="664"/>
       <c r="AN25" s="5713" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO25" s="666"/>
       <c r="AP25" s="5714" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ25" s="668"/>
       <c r="AR25" s="5715" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS25" s="670"/>
       <c r="AT25" s="5716" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU25" s="672"/>
       <c r="AV25" s="5717" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW25" s="674"/>
       <c r="AX25" s="5718" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY25" s="676"/>
       <c r="AZ25" s="5719" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BA25" s="678"/>
       <c r="BB25" s="5720" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BC25" s="680"/>
       <c r="BD25" s="5721" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BE25" s="682"/>
       <c r="BF25" s="5722" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BG25" s="684"/>
       <c r="BH25" s="685"/>
@@ -23236,67 +23239,67 @@
       <c r="BJ25" s="687"/>
       <c r="BK25" s="688"/>
       <c r="BL25" s="5723" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM25" s="690"/>
       <c r="BN25" s="5724" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO25" s="692"/>
       <c r="BP25" s="5725" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ25" s="694"/>
       <c r="BR25" s="5726" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BS25" s="696"/>
       <c r="BT25" s="5727" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BU25" s="698"/>
       <c r="BV25" s="5728" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BW25" s="700"/>
       <c r="BX25" s="5729" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BY25" s="702"/>
       <c r="BZ25" s="5730" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CA25" s="704"/>
       <c r="CB25" s="5731" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC25" s="706"/>
       <c r="CD25" s="5732" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE25" s="708"/>
       <c r="CF25" s="5733" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CG25" s="710"/>
       <c r="CH25" s="5734" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CI25" s="712"/>
       <c r="CJ25" s="5735" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CK25" s="714"/>
       <c r="CL25" s="5736" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CM25" s="716"/>
       <c r="CN25" s="5737" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CO25" s="718"/>
       <c r="CP25" s="5738" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ25" s="720"/>
       <c r="CR25" s="721"/>
@@ -23310,7 +23313,7 @@
       </c>
       <c r="B26" s="726"/>
       <c r="C26" s="727" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="728"/>
       <c r="E26" s="729"/>
@@ -23324,19 +23327,19 @@
       <c r="M26" s="737"/>
       <c r="N26" s="738"/>
       <c r="O26" s="739" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P26" s="740"/>
       <c r="Q26" s="741"/>
       <c r="R26" s="742"/>
       <c r="S26" s="743" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" s="744"/>
       <c r="U26" s="745"/>
       <c r="V26" s="746"/>
       <c r="W26" s="747" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X26" s="748"/>
       <c r="Y26" s="749"/>
@@ -23345,137 +23348,137 @@
       <c r="AB26" s="752"/>
       <c r="AC26" s="753"/>
       <c r="AD26" s="754" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE26" s="755"/>
       <c r="AF26" s="756" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG26" s="757"/>
       <c r="AH26" s="5739" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI26" s="759"/>
       <c r="AJ26" s="5740" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" s="761"/>
       <c r="AL26" s="762" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM26" s="763"/>
       <c r="AN26" s="764" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO26" s="765"/>
       <c r="AP26" s="766" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ26" s="767"/>
       <c r="AR26" s="5741" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS26" s="769"/>
       <c r="AT26" s="5742" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU26" s="771"/>
       <c r="AV26" s="5743" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW26" s="773"/>
       <c r="AX26" s="5744" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY26" s="775"/>
       <c r="AZ26" s="776" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA26" s="777"/>
       <c r="BB26" s="778" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC26" s="779"/>
       <c r="BD26" s="780" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE26" s="781"/>
       <c r="BF26" s="782" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG26" s="783"/>
       <c r="BH26" s="784" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI26" s="785"/>
       <c r="BJ26" s="786"/>
       <c r="BK26" s="787"/>
       <c r="BL26" s="788" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM26" s="789"/>
       <c r="BN26" s="5745" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO26" s="791"/>
       <c r="BP26" s="5746" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ26" s="793"/>
       <c r="BR26" s="794" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS26" s="795"/>
       <c r="BT26" s="796" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU26" s="797"/>
       <c r="BV26" s="798" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW26" s="799"/>
       <c r="BX26" s="800" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY26" s="801"/>
       <c r="BZ26" s="802" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA26" s="803"/>
       <c r="CB26" s="5747" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC26" s="805"/>
       <c r="CD26" s="5748" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE26" s="807"/>
       <c r="CF26" s="808" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG26" s="809"/>
       <c r="CH26" s="810" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI26" s="811"/>
       <c r="CJ26" s="812" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK26" s="813"/>
       <c r="CL26" s="814" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM26" s="815"/>
       <c r="CN26" s="816" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO26" s="817"/>
       <c r="CP26" s="5749" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ26" s="819"/>
       <c r="CR26" s="820" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS26" s="821"/>
       <c r="CT26" s="822"/>
@@ -23520,11 +23523,11 @@
       </c>
       <c r="AG27" s="856"/>
       <c r="AH27" s="5739" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI27" s="858"/>
       <c r="AJ27" s="5740" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" s="860"/>
       <c r="AL27" s="861" t="n">
@@ -23540,19 +23543,19 @@
       </c>
       <c r="AQ27" s="866"/>
       <c r="AR27" s="5741" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS27" s="868"/>
       <c r="AT27" s="5742" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU27" s="870"/>
       <c r="AV27" s="5743" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW27" s="872"/>
       <c r="AX27" s="5744" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY27" s="874"/>
       <c r="AZ27" s="875" t="n">
@@ -23580,11 +23583,11 @@
       </c>
       <c r="BM27" s="888"/>
       <c r="BN27" s="5745" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO27" s="890"/>
       <c r="BP27" s="5746" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ27" s="892"/>
       <c r="BR27" s="893" t="n">
@@ -23608,11 +23611,11 @@
       </c>
       <c r="CA27" s="902"/>
       <c r="CB27" s="5747" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC27" s="904"/>
       <c r="CD27" s="5748" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE27" s="906"/>
       <c r="CF27" s="907" t="n">
@@ -23636,7 +23639,7 @@
       </c>
       <c r="CO27" s="916"/>
       <c r="CP27" s="5749" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ27" s="918"/>
       <c r="CR27" s="919"/>
@@ -23650,7 +23653,7 @@
       </c>
       <c r="B28" s="924"/>
       <c r="C28" s="925" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="926"/>
       <c r="E28" s="927"/>
@@ -23664,19 +23667,19 @@
       <c r="M28" s="935"/>
       <c r="N28" s="936"/>
       <c r="O28" s="937" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P28" s="938"/>
       <c r="Q28" s="939"/>
       <c r="R28" s="940"/>
       <c r="S28" s="941" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" s="942"/>
       <c r="U28" s="943"/>
       <c r="V28" s="944"/>
       <c r="W28" s="945" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X28" s="946"/>
       <c r="Y28" s="947"/>
@@ -23685,137 +23688,137 @@
       <c r="AB28" s="950"/>
       <c r="AC28" s="951"/>
       <c r="AD28" s="952" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE28" s="953"/>
       <c r="AF28" s="954" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG28" s="955"/>
       <c r="AH28" s="5750" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI28" s="957"/>
       <c r="AJ28" s="5751" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" s="959"/>
       <c r="AL28" s="960" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM28" s="961"/>
       <c r="AN28" s="962" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO28" s="963"/>
       <c r="AP28" s="964" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ28" s="965"/>
       <c r="AR28" s="5752" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS28" s="967"/>
       <c r="AT28" s="5753" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU28" s="969"/>
       <c r="AV28" s="5754" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW28" s="971"/>
       <c r="AX28" s="5755" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY28" s="973"/>
       <c r="AZ28" s="974" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA28" s="975"/>
       <c r="BB28" s="976" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC28" s="977"/>
       <c r="BD28" s="978" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE28" s="979"/>
       <c r="BF28" s="980" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG28" s="981"/>
       <c r="BH28" s="982" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI28" s="983"/>
       <c r="BJ28" s="984"/>
       <c r="BK28" s="985"/>
       <c r="BL28" s="986" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM28" s="987"/>
       <c r="BN28" s="5756" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO28" s="989"/>
       <c r="BP28" s="5757" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ28" s="991"/>
       <c r="BR28" s="992" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS28" s="993"/>
       <c r="BT28" s="994" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU28" s="995"/>
       <c r="BV28" s="996" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW28" s="997"/>
       <c r="BX28" s="998" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY28" s="999"/>
       <c r="BZ28" s="1000" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA28" s="1001"/>
       <c r="CB28" s="5758" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC28" s="1003"/>
       <c r="CD28" s="5759" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE28" s="1005"/>
       <c r="CF28" s="1006" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG28" s="1007"/>
       <c r="CH28" s="1008" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI28" s="1009"/>
       <c r="CJ28" s="1010" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK28" s="1011"/>
       <c r="CL28" s="1012" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM28" s="1013"/>
       <c r="CN28" s="1014" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO28" s="1015"/>
       <c r="CP28" s="5760" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ28" s="1017"/>
       <c r="CR28" s="1018" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS28" s="1019"/>
       <c r="CT28" s="1020"/>
@@ -23860,11 +23863,11 @@
       </c>
       <c r="AG29" s="1054"/>
       <c r="AH29" s="5750" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI29" s="1056"/>
       <c r="AJ29" s="5751" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" s="1058"/>
       <c r="AL29" s="1059" t="n">
@@ -23880,19 +23883,19 @@
       </c>
       <c r="AQ29" s="1064"/>
       <c r="AR29" s="5752" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS29" s="1066"/>
       <c r="AT29" s="5753" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU29" s="1068"/>
       <c r="AV29" s="5754" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW29" s="1070"/>
       <c r="AX29" s="5755" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY29" s="1072"/>
       <c r="AZ29" s="1073" t="n">
@@ -23920,11 +23923,11 @@
       </c>
       <c r="BM29" s="1086"/>
       <c r="BN29" s="5756" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO29" s="1088"/>
       <c r="BP29" s="5757" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ29" s="1090"/>
       <c r="BR29" s="1091" t="n">
@@ -23948,11 +23951,11 @@
       </c>
       <c r="CA29" s="1100"/>
       <c r="CB29" s="5758" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC29" s="1102"/>
       <c r="CD29" s="5759" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE29" s="1104"/>
       <c r="CF29" s="1105" t="n">
@@ -23976,7 +23979,7 @@
       </c>
       <c r="CO29" s="1114"/>
       <c r="CP29" s="5760" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ29" s="1116"/>
       <c r="CR29" s="1117"/>
@@ -23990,7 +23993,7 @@
       </c>
       <c r="B30" s="1122"/>
       <c r="C30" s="1123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1124"/>
       <c r="E30" s="1125"/>
@@ -24004,19 +24007,19 @@
       <c r="M30" s="1133"/>
       <c r="N30" s="1134"/>
       <c r="O30" s="1135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P30" s="1136"/>
       <c r="Q30" s="1137"/>
       <c r="R30" s="1138"/>
       <c r="S30" s="1139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T30" s="1140"/>
       <c r="U30" s="1141"/>
       <c r="V30" s="1142"/>
       <c r="W30" s="1143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X30" s="1144"/>
       <c r="Y30" s="1145"/>
@@ -24025,137 +24028,137 @@
       <c r="AB30" s="1148"/>
       <c r="AC30" s="1149"/>
       <c r="AD30" s="5761" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE30" s="1151"/>
       <c r="AF30" s="5762" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG30" s="1153"/>
       <c r="AH30" s="5763" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI30" s="1155"/>
       <c r="AJ30" s="5764" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK30" s="1157"/>
       <c r="AL30" s="5765" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM30" s="1159"/>
       <c r="AN30" s="5766" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO30" s="1161"/>
       <c r="AP30" s="5767" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ30" s="1163"/>
       <c r="AR30" s="5768" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS30" s="1165"/>
       <c r="AT30" s="5769" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU30" s="1167"/>
       <c r="AV30" s="5770" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW30" s="1169"/>
       <c r="AX30" s="5771" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY30" s="1171"/>
       <c r="AZ30" s="5772" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA30" s="1173"/>
       <c r="BB30" s="5773" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BC30" s="1175"/>
       <c r="BD30" s="5774" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE30" s="1177"/>
       <c r="BF30" s="5775" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BG30" s="1179"/>
       <c r="BH30" s="1180" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BI30" s="1181"/>
       <c r="BJ30" s="1182"/>
       <c r="BK30" s="1183"/>
       <c r="BL30" s="5776" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM30" s="1185"/>
       <c r="BN30" s="5777" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO30" s="1187"/>
       <c r="BP30" s="5778" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ30" s="1189"/>
       <c r="BR30" s="5779" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS30" s="1191"/>
       <c r="BT30" s="5780" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BU30" s="1193"/>
       <c r="BV30" s="5781" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BW30" s="1195"/>
       <c r="BX30" s="5782" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BY30" s="1197"/>
       <c r="BZ30" s="5783" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA30" s="1199"/>
       <c r="CB30" s="5784" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CC30" s="1201"/>
       <c r="CD30" s="5785" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CE30" s="1203"/>
       <c r="CF30" s="5786" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CG30" s="1205"/>
       <c r="CH30" s="5787" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CI30" s="1207"/>
       <c r="CJ30" s="5788" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CK30" s="1209"/>
       <c r="CL30" s="5789" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CM30" s="1211"/>
       <c r="CN30" s="5790" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CO30" s="1213"/>
       <c r="CP30" s="5791" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CQ30" s="1215"/>
       <c r="CR30" s="1216" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CS30" s="1217"/>
       <c r="CT30" s="1218"/>
@@ -24192,63 +24195,63 @@
       <c r="AB31" s="1247"/>
       <c r="AC31" s="1248"/>
       <c r="AD31" s="5761" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE31" s="1250"/>
       <c r="AF31" s="5762" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG31" s="1252"/>
       <c r="AH31" s="5763" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI31" s="1254"/>
       <c r="AJ31" s="5764" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" s="1256"/>
       <c r="AL31" s="5765" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM31" s="1258"/>
       <c r="AN31" s="5766" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO31" s="1260"/>
       <c r="AP31" s="5767" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ31" s="1262"/>
       <c r="AR31" s="5768" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS31" s="1264"/>
       <c r="AT31" s="5769" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU31" s="1266"/>
       <c r="AV31" s="5770" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW31" s="1268"/>
       <c r="AX31" s="5771" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY31" s="1270"/>
       <c r="AZ31" s="5772" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BA31" s="1272"/>
       <c r="BB31" s="5773" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BC31" s="1274"/>
       <c r="BD31" s="5774" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BE31" s="1276"/>
       <c r="BF31" s="5775" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BG31" s="1278"/>
       <c r="BH31" s="1279"/>
@@ -24256,67 +24259,67 @@
       <c r="BJ31" s="1281"/>
       <c r="BK31" s="1282"/>
       <c r="BL31" s="5776" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM31" s="1284"/>
       <c r="BN31" s="5777" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO31" s="1286"/>
       <c r="BP31" s="5778" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ31" s="1288"/>
       <c r="BR31" s="5779" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BS31" s="1290"/>
       <c r="BT31" s="5780" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BU31" s="1292"/>
       <c r="BV31" s="5781" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BW31" s="1294"/>
       <c r="BX31" s="5782" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BY31" s="1296"/>
       <c r="BZ31" s="5783" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CA31" s="1298"/>
       <c r="CB31" s="5784" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC31" s="1300"/>
       <c r="CD31" s="5785" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE31" s="1302"/>
       <c r="CF31" s="5786" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CG31" s="1304"/>
       <c r="CH31" s="5787" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CI31" s="1306"/>
       <c r="CJ31" s="5788" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CK31" s="1308"/>
       <c r="CL31" s="5789" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CM31" s="1310"/>
       <c r="CN31" s="5790" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CO31" s="1312"/>
       <c r="CP31" s="5791" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ31" s="1314"/>
       <c r="CR31" s="1315"/>
@@ -24330,7 +24333,7 @@
       </c>
       <c r="B32" s="1320"/>
       <c r="C32" s="1321" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1322"/>
       <c r="E32" s="1323"/>
@@ -24344,19 +24347,19 @@
       <c r="M32" s="1331"/>
       <c r="N32" s="1332"/>
       <c r="O32" s="1333" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P32" s="1334"/>
       <c r="Q32" s="1335"/>
       <c r="R32" s="1336"/>
       <c r="S32" s="1337" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T32" s="1338"/>
       <c r="U32" s="1339"/>
       <c r="V32" s="1340"/>
       <c r="W32" s="1341" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X32" s="1342"/>
       <c r="Y32" s="1343"/>
@@ -24365,137 +24368,137 @@
       <c r="AB32" s="1346"/>
       <c r="AC32" s="1347"/>
       <c r="AD32" s="1348" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE32" s="1349"/>
       <c r="AF32" s="1350" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG32" s="1351"/>
       <c r="AH32" s="5792" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI32" s="1353"/>
       <c r="AJ32" s="5793" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" s="1355"/>
       <c r="AL32" s="1356" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM32" s="1357"/>
       <c r="AN32" s="1358" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO32" s="1359"/>
       <c r="AP32" s="1360" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ32" s="1361"/>
       <c r="AR32" s="5794" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS32" s="1363"/>
       <c r="AT32" s="5795" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU32" s="1365"/>
       <c r="AV32" s="5796" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW32" s="1367"/>
       <c r="AX32" s="5797" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY32" s="1369"/>
       <c r="AZ32" s="1370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA32" s="1371"/>
       <c r="BB32" s="1372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC32" s="1373"/>
       <c r="BD32" s="1374" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE32" s="1375"/>
       <c r="BF32" s="1376" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG32" s="1377"/>
       <c r="BH32" s="1378" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI32" s="1379"/>
       <c r="BJ32" s="1380"/>
       <c r="BK32" s="1381"/>
       <c r="BL32" s="1382" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM32" s="1383"/>
       <c r="BN32" s="5798" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO32" s="1385"/>
       <c r="BP32" s="5799" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ32" s="1387"/>
       <c r="BR32" s="1388" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS32" s="1389"/>
       <c r="BT32" s="1390" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU32" s="1391"/>
       <c r="BV32" s="1392" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW32" s="1393"/>
       <c r="BX32" s="1394" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY32" s="1395"/>
       <c r="BZ32" s="1396" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA32" s="1397"/>
       <c r="CB32" s="5800" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC32" s="1399"/>
       <c r="CD32" s="5801" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE32" s="1401"/>
       <c r="CF32" s="1402" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG32" s="1403"/>
       <c r="CH32" s="1404" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI32" s="1405"/>
       <c r="CJ32" s="1406" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK32" s="1407"/>
       <c r="CL32" s="1408" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM32" s="1409"/>
       <c r="CN32" s="1410" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO32" s="1411"/>
       <c r="CP32" s="5802" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ32" s="1413"/>
       <c r="CR32" s="1414" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS32" s="1415"/>
       <c r="CT32" s="1416"/>
@@ -24540,11 +24543,11 @@
       </c>
       <c r="AG33" s="1450"/>
       <c r="AH33" s="5792" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI33" s="1452"/>
       <c r="AJ33" s="5793" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" s="1454"/>
       <c r="AL33" s="1455" t="n">
@@ -24560,19 +24563,19 @@
       </c>
       <c r="AQ33" s="1460"/>
       <c r="AR33" s="5794" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS33" s="1462"/>
       <c r="AT33" s="5795" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU33" s="1464"/>
       <c r="AV33" s="5796" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW33" s="1466"/>
       <c r="AX33" s="5797" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY33" s="1468"/>
       <c r="AZ33" s="1469" t="n">
@@ -24600,11 +24603,11 @@
       </c>
       <c r="BM33" s="1482"/>
       <c r="BN33" s="5798" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO33" s="1484"/>
       <c r="BP33" s="5799" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ33" s="1486"/>
       <c r="BR33" s="1487" t="n">
@@ -24628,11 +24631,11 @@
       </c>
       <c r="CA33" s="1496"/>
       <c r="CB33" s="5800" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC33" s="1498"/>
       <c r="CD33" s="5801" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE33" s="1500"/>
       <c r="CF33" s="1501" t="n">
@@ -24656,7 +24659,7 @@
       </c>
       <c r="CO33" s="1510"/>
       <c r="CP33" s="5802" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ33" s="1512"/>
       <c r="CR33" s="1513"/>
@@ -24670,7 +24673,7 @@
       </c>
       <c r="B34" s="1518"/>
       <c r="C34" s="1519" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1520"/>
       <c r="E34" s="1521"/>
@@ -24684,19 +24687,19 @@
       <c r="M34" s="1529"/>
       <c r="N34" s="1530"/>
       <c r="O34" s="1531" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P34" s="1532"/>
       <c r="Q34" s="1533"/>
       <c r="R34" s="1534"/>
       <c r="S34" s="1535" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T34" s="1536"/>
       <c r="U34" s="1537"/>
       <c r="V34" s="1538"/>
       <c r="W34" s="1539" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X34" s="1540"/>
       <c r="Y34" s="1541"/>
@@ -24705,137 +24708,137 @@
       <c r="AB34" s="1544"/>
       <c r="AC34" s="1545"/>
       <c r="AD34" s="1546" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE34" s="1547"/>
       <c r="AF34" s="1548" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG34" s="1549"/>
       <c r="AH34" s="5803" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI34" s="1551"/>
       <c r="AJ34" s="5804" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" s="1553"/>
       <c r="AL34" s="1554" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM34" s="1555"/>
       <c r="AN34" s="1556" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO34" s="1557"/>
       <c r="AP34" s="1558" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ34" s="1559"/>
       <c r="AR34" s="5805" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS34" s="1561"/>
       <c r="AT34" s="5806" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU34" s="1563"/>
       <c r="AV34" s="5807" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW34" s="1565"/>
       <c r="AX34" s="5808" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY34" s="1567"/>
       <c r="AZ34" s="1568" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA34" s="1569"/>
       <c r="BB34" s="1570" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC34" s="1571"/>
       <c r="BD34" s="1572" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE34" s="1573"/>
       <c r="BF34" s="1574" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG34" s="1575"/>
       <c r="BH34" s="1576" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI34" s="1577"/>
       <c r="BJ34" s="1578"/>
       <c r="BK34" s="1579"/>
       <c r="BL34" s="1580" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM34" s="1581"/>
       <c r="BN34" s="5809" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO34" s="1583"/>
       <c r="BP34" s="5810" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ34" s="1585"/>
       <c r="BR34" s="1586" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS34" s="1587"/>
       <c r="BT34" s="1588" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU34" s="1589"/>
       <c r="BV34" s="1590" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW34" s="1591"/>
       <c r="BX34" s="1592" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY34" s="1593"/>
       <c r="BZ34" s="1594" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA34" s="1595"/>
       <c r="CB34" s="5811" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC34" s="1597"/>
       <c r="CD34" s="5812" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE34" s="1599"/>
       <c r="CF34" s="1600" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG34" s="1601"/>
       <c r="CH34" s="1602" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI34" s="1603"/>
       <c r="CJ34" s="1604" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK34" s="1605"/>
       <c r="CL34" s="1606" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM34" s="1607"/>
       <c r="CN34" s="1608" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO34" s="1609"/>
       <c r="CP34" s="5813" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ34" s="1611"/>
       <c r="CR34" s="1612" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS34" s="1613"/>
       <c r="CT34" s="1614"/>
@@ -24880,11 +24883,11 @@
       </c>
       <c r="AG35" s="1648"/>
       <c r="AH35" s="5803" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI35" s="1650"/>
       <c r="AJ35" s="5804" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" s="1652"/>
       <c r="AL35" s="1653" t="n">
@@ -24900,19 +24903,19 @@
       </c>
       <c r="AQ35" s="1658"/>
       <c r="AR35" s="5805" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS35" s="1660"/>
       <c r="AT35" s="5806" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU35" s="1662"/>
       <c r="AV35" s="5807" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW35" s="1664"/>
       <c r="AX35" s="5808" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY35" s="1666"/>
       <c r="AZ35" s="1667" t="n">
@@ -24940,11 +24943,11 @@
       </c>
       <c r="BM35" s="1680"/>
       <c r="BN35" s="5809" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO35" s="1682"/>
       <c r="BP35" s="5810" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ35" s="1684"/>
       <c r="BR35" s="1685" t="n">
@@ -24968,11 +24971,11 @@
       </c>
       <c r="CA35" s="1694"/>
       <c r="CB35" s="5811" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC35" s="1696"/>
       <c r="CD35" s="5812" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE35" s="1698"/>
       <c r="CF35" s="1699" t="n">
@@ -24996,7 +24999,7 @@
       </c>
       <c r="CO35" s="1708"/>
       <c r="CP35" s="5813" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ35" s="1710"/>
       <c r="CR35" s="1711"/>
@@ -25010,7 +25013,7 @@
       </c>
       <c r="B36" s="1716"/>
       <c r="C36" s="1717" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1718"/>
       <c r="E36" s="1719"/>
@@ -25024,19 +25027,19 @@
       <c r="M36" s="1727"/>
       <c r="N36" s="1728"/>
       <c r="O36" s="1729" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P36" s="1730"/>
       <c r="Q36" s="1731"/>
       <c r="R36" s="1732"/>
       <c r="S36" s="1733" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T36" s="1734"/>
       <c r="U36" s="1735"/>
       <c r="V36" s="1736"/>
       <c r="W36" s="1737" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X36" s="1738"/>
       <c r="Y36" s="1739"/>
@@ -25045,137 +25048,137 @@
       <c r="AB36" s="1742"/>
       <c r="AC36" s="1743"/>
       <c r="AD36" s="1744" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE36" s="1745"/>
       <c r="AF36" s="1746" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG36" s="1747"/>
       <c r="AH36" s="5814" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI36" s="1749"/>
       <c r="AJ36" s="5815" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" s="1751"/>
       <c r="AL36" s="1752" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM36" s="1753"/>
       <c r="AN36" s="1754" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO36" s="1755"/>
       <c r="AP36" s="1756" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ36" s="1757"/>
       <c r="AR36" s="5816" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS36" s="1759"/>
       <c r="AT36" s="5817" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU36" s="1761"/>
       <c r="AV36" s="5818" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW36" s="1763"/>
       <c r="AX36" s="5819" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY36" s="1765"/>
       <c r="AZ36" s="1766" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA36" s="1767"/>
       <c r="BB36" s="1768" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC36" s="1769"/>
       <c r="BD36" s="1770" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE36" s="1771"/>
       <c r="BF36" s="1772" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG36" s="1773"/>
       <c r="BH36" s="1774" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI36" s="1775"/>
       <c r="BJ36" s="1776"/>
       <c r="BK36" s="1777"/>
       <c r="BL36" s="1778" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM36" s="1779"/>
       <c r="BN36" s="5820" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO36" s="1781"/>
       <c r="BP36" s="5821" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ36" s="1783"/>
       <c r="BR36" s="1784" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS36" s="1785"/>
       <c r="BT36" s="1786" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU36" s="1787"/>
       <c r="BV36" s="1788" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW36" s="1789"/>
       <c r="BX36" s="1790" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY36" s="1791"/>
       <c r="BZ36" s="1792" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA36" s="1793"/>
       <c r="CB36" s="5822" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC36" s="1795"/>
       <c r="CD36" s="5823" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE36" s="1797"/>
       <c r="CF36" s="1798" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG36" s="1799"/>
       <c r="CH36" s="1800" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI36" s="1801"/>
       <c r="CJ36" s="1802" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK36" s="1803"/>
       <c r="CL36" s="1804" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM36" s="1805"/>
       <c r="CN36" s="1806" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO36" s="1807"/>
       <c r="CP36" s="5824" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ36" s="1809"/>
       <c r="CR36" s="1810" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS36" s="1811"/>
       <c r="CT36" s="1812"/>
@@ -25220,11 +25223,11 @@
       </c>
       <c r="AG37" s="1846"/>
       <c r="AH37" s="5814" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI37" s="1848"/>
       <c r="AJ37" s="5815" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK37" s="1850"/>
       <c r="AL37" s="1851" t="n">
@@ -25240,19 +25243,19 @@
       </c>
       <c r="AQ37" s="1856"/>
       <c r="AR37" s="5816" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS37" s="1858"/>
       <c r="AT37" s="5817" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU37" s="1860"/>
       <c r="AV37" s="5818" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW37" s="1862"/>
       <c r="AX37" s="5819" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY37" s="1864"/>
       <c r="AZ37" s="1865" t="n">
@@ -25280,11 +25283,11 @@
       </c>
       <c r="BM37" s="1878"/>
       <c r="BN37" s="5820" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO37" s="1880"/>
       <c r="BP37" s="5821" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ37" s="1882"/>
       <c r="BR37" s="1883" t="n">
@@ -25308,11 +25311,11 @@
       </c>
       <c r="CA37" s="1892"/>
       <c r="CB37" s="5822" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC37" s="1894"/>
       <c r="CD37" s="5823" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE37" s="1896"/>
       <c r="CF37" s="1897" t="n">
@@ -25336,7 +25339,7 @@
       </c>
       <c r="CO37" s="1906"/>
       <c r="CP37" s="5824" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ37" s="1908"/>
       <c r="CR37" s="1909"/>
@@ -25350,7 +25353,7 @@
       </c>
       <c r="B38" s="1914"/>
       <c r="C38" s="1915" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1916"/>
       <c r="E38" s="1917"/>
@@ -25364,19 +25367,19 @@
       <c r="M38" s="1925"/>
       <c r="N38" s="1926"/>
       <c r="O38" s="1927" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P38" s="1928"/>
       <c r="Q38" s="1929"/>
       <c r="R38" s="1930"/>
       <c r="S38" s="1931" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T38" s="1932"/>
       <c r="U38" s="1933"/>
       <c r="V38" s="1934"/>
       <c r="W38" s="1935" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X38" s="1936"/>
       <c r="Y38" s="1937"/>
@@ -25385,137 +25388,137 @@
       <c r="AB38" s="1940"/>
       <c r="AC38" s="1941"/>
       <c r="AD38" s="1942" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE38" s="1943"/>
       <c r="AF38" s="1944" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG38" s="1945"/>
       <c r="AH38" s="5825" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI38" s="1947"/>
       <c r="AJ38" s="5826" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" s="1949"/>
       <c r="AL38" s="1950" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM38" s="1951"/>
       <c r="AN38" s="1952" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO38" s="1953"/>
       <c r="AP38" s="1954" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ38" s="1955"/>
       <c r="AR38" s="5827" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS38" s="1957"/>
       <c r="AT38" s="5828" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU38" s="1959"/>
       <c r="AV38" s="5829" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW38" s="1961"/>
       <c r="AX38" s="5830" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY38" s="1963"/>
       <c r="AZ38" s="1964" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA38" s="1965"/>
       <c r="BB38" s="1966" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC38" s="1967"/>
       <c r="BD38" s="1968" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE38" s="1969"/>
       <c r="BF38" s="1970" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG38" s="1971"/>
       <c r="BH38" s="1972" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI38" s="1973"/>
       <c r="BJ38" s="1974"/>
       <c r="BK38" s="1975"/>
       <c r="BL38" s="1976" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM38" s="1977"/>
       <c r="BN38" s="5831" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO38" s="1979"/>
       <c r="BP38" s="5832" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ38" s="1981"/>
       <c r="BR38" s="1982" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS38" s="1983"/>
       <c r="BT38" s="1984" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU38" s="1985"/>
       <c r="BV38" s="1986" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW38" s="1987"/>
       <c r="BX38" s="1988" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY38" s="1989"/>
       <c r="BZ38" s="1990" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA38" s="1991"/>
       <c r="CB38" s="5833" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC38" s="1993"/>
       <c r="CD38" s="5834" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE38" s="1995"/>
       <c r="CF38" s="1996" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG38" s="1997"/>
       <c r="CH38" s="1998" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI38" s="1999"/>
       <c r="CJ38" s="2000" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK38" s="2001"/>
       <c r="CL38" s="2002" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM38" s="2003"/>
       <c r="CN38" s="2004" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO38" s="2005"/>
       <c r="CP38" s="5835" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ38" s="2007"/>
       <c r="CR38" s="2008" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS38" s="2009"/>
       <c r="CT38" s="2010"/>
@@ -25560,11 +25563,11 @@
       </c>
       <c r="AG39" s="2044"/>
       <c r="AH39" s="5825" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI39" s="2046"/>
       <c r="AJ39" s="5826" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" s="2048"/>
       <c r="AL39" s="2049" t="n">
@@ -25580,19 +25583,19 @@
       </c>
       <c r="AQ39" s="2054"/>
       <c r="AR39" s="5827" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS39" s="2056"/>
       <c r="AT39" s="5828" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU39" s="2058"/>
       <c r="AV39" s="5829" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW39" s="2060"/>
       <c r="AX39" s="5830" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY39" s="2062"/>
       <c r="AZ39" s="2063" t="n">
@@ -25620,11 +25623,11 @@
       </c>
       <c r="BM39" s="2076"/>
       <c r="BN39" s="5831" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO39" s="2078"/>
       <c r="BP39" s="5832" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ39" s="2080"/>
       <c r="BR39" s="2081" t="n">
@@ -25648,11 +25651,11 @@
       </c>
       <c r="CA39" s="2090"/>
       <c r="CB39" s="5833" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC39" s="2092"/>
       <c r="CD39" s="5834" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE39" s="2094"/>
       <c r="CF39" s="2095" t="n">
@@ -25676,7 +25679,7 @@
       </c>
       <c r="CO39" s="2104"/>
       <c r="CP39" s="5835" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ39" s="2106"/>
       <c r="CR39" s="2107"/>
@@ -25690,7 +25693,7 @@
       </c>
       <c r="B40" s="2112"/>
       <c r="C40" s="2113" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2114"/>
       <c r="E40" s="2115"/>
@@ -25704,19 +25707,19 @@
       <c r="M40" s="2123"/>
       <c r="N40" s="2124"/>
       <c r="O40" s="2125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P40" s="2126"/>
       <c r="Q40" s="2127"/>
       <c r="R40" s="2128"/>
       <c r="S40" s="2129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T40" s="2130"/>
       <c r="U40" s="2131"/>
       <c r="V40" s="2132"/>
       <c r="W40" s="2133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X40" s="2134"/>
       <c r="Y40" s="2135"/>
@@ -25725,137 +25728,137 @@
       <c r="AB40" s="2138"/>
       <c r="AC40" s="2139"/>
       <c r="AD40" s="2140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE40" s="2141"/>
       <c r="AF40" s="2142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG40" s="2143"/>
       <c r="AH40" s="5836" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI40" s="2145"/>
       <c r="AJ40" s="5837" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" s="2147"/>
       <c r="AL40" s="2148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM40" s="2149"/>
       <c r="AN40" s="2150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO40" s="2151"/>
       <c r="AP40" s="2152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ40" s="2153"/>
       <c r="AR40" s="5838" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS40" s="2155"/>
       <c r="AT40" s="5839" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU40" s="2157"/>
       <c r="AV40" s="5840" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW40" s="2159"/>
       <c r="AX40" s="5841" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY40" s="2161"/>
       <c r="AZ40" s="2162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA40" s="2163"/>
       <c r="BB40" s="2164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC40" s="2165"/>
       <c r="BD40" s="2166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE40" s="2167"/>
       <c r="BF40" s="2168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG40" s="2169"/>
       <c r="BH40" s="2170" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI40" s="2171"/>
       <c r="BJ40" s="2172"/>
       <c r="BK40" s="2173"/>
       <c r="BL40" s="2174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM40" s="2175"/>
       <c r="BN40" s="5842" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO40" s="2177"/>
       <c r="BP40" s="5843" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ40" s="2179"/>
       <c r="BR40" s="2180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS40" s="2181"/>
       <c r="BT40" s="2182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU40" s="2183"/>
       <c r="BV40" s="2184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW40" s="2185"/>
       <c r="BX40" s="2186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY40" s="2187"/>
       <c r="BZ40" s="2188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA40" s="2189"/>
       <c r="CB40" s="5844" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC40" s="2191"/>
       <c r="CD40" s="5845" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE40" s="2193"/>
       <c r="CF40" s="2194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG40" s="2195"/>
       <c r="CH40" s="2196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI40" s="2197"/>
       <c r="CJ40" s="2198" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK40" s="2199"/>
       <c r="CL40" s="2200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM40" s="2201"/>
       <c r="CN40" s="2202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO40" s="2203"/>
       <c r="CP40" s="5846" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ40" s="2205"/>
       <c r="CR40" s="2206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS40" s="2207"/>
       <c r="CT40" s="2208"/>
@@ -25900,11 +25903,11 @@
       </c>
       <c r="AG41" s="6046"/>
       <c r="AH41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI41" s="6046"/>
       <c r="AJ41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" s="6046"/>
       <c r="AL41" s="6046" t="n">
@@ -25920,19 +25923,19 @@
       </c>
       <c r="AQ41" s="6046"/>
       <c r="AR41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS41" s="6046"/>
       <c r="AT41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU41" s="6046"/>
       <c r="AV41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW41" s="6046"/>
       <c r="AX41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY41" s="6046"/>
       <c r="AZ41" s="6046" t="n">
@@ -25960,11 +25963,11 @@
       </c>
       <c r="BM41" s="6046"/>
       <c r="BN41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO41" s="6046"/>
       <c r="BP41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ41" s="6046"/>
       <c r="BR41" s="6046" t="n">
@@ -25988,11 +25991,11 @@
       </c>
       <c r="CA41" s="6046"/>
       <c r="CB41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC41" s="6046"/>
       <c r="CD41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE41" s="6046"/>
       <c r="CF41" s="6046" t="n">
@@ -26016,7 +26019,7 @@
       </c>
       <c r="CO41" s="6046"/>
       <c r="CP41" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ41" s="6046"/>
       <c r="CR41" s="6048"/>
@@ -26055,47 +26058,47 @@
       <c r="AB42" s="6050"/>
       <c r="AC42" s="6050"/>
       <c r="AD42" s="6050" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE42" s="6050"/>
       <c r="AF42" s="6050" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG42" s="6050"/>
       <c r="AH42" s="6050" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI42" s="6050"/>
       <c r="AJ42" s="6050" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" s="6050"/>
       <c r="AL42" s="6050" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM42" s="6050"/>
       <c r="AN42" s="6050" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AO42" s="6050"/>
       <c r="AP42" s="6050" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AQ42" s="6050"/>
       <c r="AR42" s="6050" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS42" s="6050"/>
       <c r="AT42" s="6050" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AU42" s="6050"/>
       <c r="AV42" s="6050" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AW42" s="6050"/>
       <c r="AX42" s="6050" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AY42" s="6050"/>
       <c r="AZ42" s="6050" t="s">
@@ -26103,15 +26106,15 @@
       </c>
       <c r="BA42" s="6050"/>
       <c r="BB42" s="6050" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BC42" s="6050"/>
       <c r="BD42" s="6050" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BE42" s="6050"/>
       <c r="BF42" s="6050" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BG42" s="6050"/>
       <c r="BH42" s="6050"/>
@@ -26119,11 +26122,11 @@
       <c r="BJ42" s="6050"/>
       <c r="BK42" s="6050"/>
       <c r="BL42" s="6050" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BM42" s="6050"/>
       <c r="BN42" s="6050" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BO42" s="6050"/>
       <c r="BP42" s="6050" t="s">
@@ -26131,7 +26134,7 @@
       </c>
       <c r="BQ42" s="6050"/>
       <c r="BR42" s="6050" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BS42" s="6050"/>
       <c r="BT42" s="6050" t="s">
@@ -26139,31 +26142,31 @@
       </c>
       <c r="BU42" s="6050"/>
       <c r="BV42" s="6050" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BW42" s="6050"/>
       <c r="BX42" s="6050" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BY42" s="6050"/>
       <c r="BZ42" s="6050" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CA42" s="6050"/>
       <c r="CB42" s="6050" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CC42" s="6050"/>
       <c r="CD42" s="6050" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CE42" s="6050"/>
       <c r="CF42" s="6050" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CG42" s="6050"/>
       <c r="CH42" s="6050" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CI42" s="6050"/>
       <c r="CJ42" s="6050" t="s">
@@ -26171,11 +26174,11 @@
       </c>
       <c r="CK42" s="6050"/>
       <c r="CL42" s="6050" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM42" s="6050"/>
       <c r="CN42" s="6050" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CO42" s="6050"/>
       <c r="CP42" s="6050" t="s">
@@ -26193,7 +26196,7 @@
       </c>
       <c r="B43" s="2310"/>
       <c r="C43" s="2311" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2312"/>
       <c r="E43" s="2313"/>
@@ -26207,19 +26210,19 @@
       <c r="M43" s="2321"/>
       <c r="N43" s="2322"/>
       <c r="O43" s="2323" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P43" s="2324"/>
       <c r="Q43" s="2325"/>
       <c r="R43" s="2326"/>
       <c r="S43" s="2327" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T43" s="2328"/>
       <c r="U43" s="2329"/>
       <c r="V43" s="2330"/>
       <c r="W43" s="2331" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X43" s="2332"/>
       <c r="Y43" s="2333"/>
@@ -26228,137 +26231,137 @@
       <c r="AB43" s="2336"/>
       <c r="AC43" s="2337"/>
       <c r="AD43" s="2338" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE43" s="2339"/>
       <c r="AF43" s="2340" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG43" s="2341"/>
       <c r="AH43" s="5847" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI43" s="2343"/>
       <c r="AJ43" s="5848" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" s="2345"/>
       <c r="AL43" s="2346" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM43" s="2347"/>
       <c r="AN43" s="2348" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO43" s="2349"/>
       <c r="AP43" s="2350" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ43" s="2351"/>
       <c r="AR43" s="5849" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS43" s="2353"/>
       <c r="AT43" s="5850" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU43" s="2355"/>
       <c r="AV43" s="5851" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW43" s="2357"/>
       <c r="AX43" s="5852" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY43" s="2359"/>
       <c r="AZ43" s="2360" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA43" s="2361"/>
       <c r="BB43" s="2362" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC43" s="2363"/>
       <c r="BD43" s="2364" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE43" s="2365"/>
       <c r="BF43" s="2366" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG43" s="2367"/>
       <c r="BH43" s="2368" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI43" s="2369"/>
       <c r="BJ43" s="2370"/>
       <c r="BK43" s="2371"/>
       <c r="BL43" s="2372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM43" s="2373"/>
       <c r="BN43" s="5853" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO43" s="2375"/>
       <c r="BP43" s="5854" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ43" s="2377"/>
       <c r="BR43" s="2378" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS43" s="2379"/>
       <c r="BT43" s="2380" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU43" s="2381"/>
       <c r="BV43" s="2382" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW43" s="2383"/>
       <c r="BX43" s="2384" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY43" s="2385"/>
       <c r="BZ43" s="2386" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA43" s="2387"/>
       <c r="CB43" s="5855" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC43" s="2389"/>
       <c r="CD43" s="5856" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE43" s="2391"/>
       <c r="CF43" s="2392" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG43" s="2393"/>
       <c r="CH43" s="2394" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI43" s="2395"/>
       <c r="CJ43" s="2396" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK43" s="2397"/>
       <c r="CL43" s="2398" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM43" s="2399"/>
       <c r="CN43" s="2400" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO43" s="2401"/>
       <c r="CP43" s="5857" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ43" s="2403"/>
       <c r="CR43" s="2404" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS43" s="2405"/>
       <c r="CT43" s="2406"/>
@@ -26403,11 +26406,11 @@
       </c>
       <c r="AG44" s="2440"/>
       <c r="AH44" s="5847" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI44" s="2442"/>
       <c r="AJ44" s="5848" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" s="2444"/>
       <c r="AL44" s="2445" t="n">
@@ -26423,19 +26426,19 @@
       </c>
       <c r="AQ44" s="2450"/>
       <c r="AR44" s="5849" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS44" s="2452"/>
       <c r="AT44" s="5850" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU44" s="2454"/>
       <c r="AV44" s="5851" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW44" s="2456"/>
       <c r="AX44" s="5852" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY44" s="2458"/>
       <c r="AZ44" s="2459" t="n">
@@ -26463,11 +26466,11 @@
       </c>
       <c r="BM44" s="2472"/>
       <c r="BN44" s="5853" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO44" s="2474"/>
       <c r="BP44" s="5854" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ44" s="2476"/>
       <c r="BR44" s="2477" t="n">
@@ -26491,11 +26494,11 @@
       </c>
       <c r="CA44" s="2486"/>
       <c r="CB44" s="5855" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC44" s="2488"/>
       <c r="CD44" s="5856" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE44" s="2490"/>
       <c r="CF44" s="2491" t="n">
@@ -26519,7 +26522,7 @@
       </c>
       <c r="CO44" s="2500"/>
       <c r="CP44" s="5857" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ44" s="2502"/>
       <c r="CR44" s="2503"/>
@@ -26533,7 +26536,7 @@
       </c>
       <c r="B45" s="2508"/>
       <c r="C45" s="2509" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45" s="2510"/>
       <c r="E45" s="2511"/>
@@ -26547,19 +26550,19 @@
       <c r="M45" s="2519"/>
       <c r="N45" s="2520"/>
       <c r="O45" s="2521" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P45" s="2522"/>
       <c r="Q45" s="2523"/>
       <c r="R45" s="2524"/>
       <c r="S45" s="2525" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T45" s="2526"/>
       <c r="U45" s="2527"/>
       <c r="V45" s="2528"/>
       <c r="W45" s="2529" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X45" s="2530"/>
       <c r="Y45" s="2531"/>
@@ -26568,137 +26571,137 @@
       <c r="AB45" s="2534"/>
       <c r="AC45" s="2535"/>
       <c r="AD45" s="2536" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE45" s="2537"/>
       <c r="AF45" s="2538" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG45" s="2539"/>
       <c r="AH45" s="5859" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI45" s="2541"/>
       <c r="AJ45" s="5860" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" s="2543"/>
       <c r="AL45" s="2544" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM45" s="2545"/>
       <c r="AN45" s="2546" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO45" s="2547"/>
       <c r="AP45" s="2548" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ45" s="2549"/>
       <c r="AR45" s="5861" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS45" s="2551"/>
       <c r="AT45" s="5862" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU45" s="2553"/>
       <c r="AV45" s="5863" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW45" s="2555"/>
       <c r="AX45" s="5864" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY45" s="2557"/>
       <c r="AZ45" s="2558" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA45" s="2559"/>
       <c r="BB45" s="2560" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC45" s="2561"/>
       <c r="BD45" s="2562" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE45" s="2563"/>
       <c r="BF45" s="2564" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG45" s="2565"/>
       <c r="BH45" s="2566" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI45" s="2567"/>
       <c r="BJ45" s="2568"/>
       <c r="BK45" s="2569"/>
       <c r="BL45" s="2570" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM45" s="2571"/>
       <c r="BN45" s="5865" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO45" s="2573"/>
       <c r="BP45" s="5866" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ45" s="2575"/>
       <c r="BR45" s="2576" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS45" s="2577"/>
       <c r="BT45" s="2578" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU45" s="2579"/>
       <c r="BV45" s="2580" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW45" s="2581"/>
       <c r="BX45" s="2582" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY45" s="2583"/>
       <c r="BZ45" s="2584" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA45" s="2585"/>
       <c r="CB45" s="5867" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC45" s="2587"/>
       <c r="CD45" s="5868" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE45" s="2589"/>
       <c r="CF45" s="2590" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG45" s="2591"/>
       <c r="CH45" s="2592" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI45" s="2593"/>
       <c r="CJ45" s="2594" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK45" s="2595"/>
       <c r="CL45" s="2596" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM45" s="2597"/>
       <c r="CN45" s="2598" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO45" s="2599"/>
       <c r="CP45" s="5869" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ45" s="2601"/>
       <c r="CR45" s="2602" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS45" s="2603"/>
       <c r="CT45" s="2604"/>
@@ -26743,11 +26746,11 @@
       </c>
       <c r="AG46" s="2638"/>
       <c r="AH46" s="5859" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI46" s="2640"/>
       <c r="AJ46" s="5860" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" s="2642"/>
       <c r="AL46" s="2643" t="n">
@@ -26763,19 +26766,19 @@
       </c>
       <c r="AQ46" s="2648"/>
       <c r="AR46" s="5861" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS46" s="2650"/>
       <c r="AT46" s="5862" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU46" s="2652"/>
       <c r="AV46" s="5863" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW46" s="2654"/>
       <c r="AX46" s="5864" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY46" s="2656"/>
       <c r="AZ46" s="2657" t="n">
@@ -26803,11 +26806,11 @@
       </c>
       <c r="BM46" s="2670"/>
       <c r="BN46" s="5865" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO46" s="2672"/>
       <c r="BP46" s="5866" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ46" s="2674"/>
       <c r="BR46" s="2675" t="n">
@@ -26831,11 +26834,11 @@
       </c>
       <c r="CA46" s="2684"/>
       <c r="CB46" s="5867" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC46" s="2686"/>
       <c r="CD46" s="5868" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE46" s="2688"/>
       <c r="CF46" s="2689" t="n">
@@ -26859,7 +26862,7 @@
       </c>
       <c r="CO46" s="2698"/>
       <c r="CP46" s="5869" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ46" s="2700"/>
       <c r="CR46" s="2701"/>
@@ -26873,7 +26876,7 @@
       </c>
       <c r="B47" s="2706"/>
       <c r="C47" s="2707" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2708"/>
       <c r="E47" s="2709"/>
@@ -26887,19 +26890,19 @@
       <c r="M47" s="2717"/>
       <c r="N47" s="2718"/>
       <c r="O47" s="2719" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P47" s="2720"/>
       <c r="Q47" s="2721"/>
       <c r="R47" s="2722"/>
       <c r="S47" s="2723" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T47" s="2724"/>
       <c r="U47" s="2725"/>
       <c r="V47" s="2726"/>
       <c r="W47" s="2727" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X47" s="2728"/>
       <c r="Y47" s="2729"/>
@@ -26908,137 +26911,137 @@
       <c r="AB47" s="2732"/>
       <c r="AC47" s="2733"/>
       <c r="AD47" s="2734" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE47" s="2735"/>
       <c r="AF47" s="2736" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG47" s="2737"/>
       <c r="AH47" s="5870" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI47" s="2739"/>
       <c r="AJ47" s="5871" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" s="2741"/>
       <c r="AL47" s="2742" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM47" s="2743"/>
       <c r="AN47" s="2744" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO47" s="2745"/>
       <c r="AP47" s="2746" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ47" s="2747"/>
       <c r="AR47" s="5872" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS47" s="2749"/>
       <c r="AT47" s="5873" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU47" s="2751"/>
       <c r="AV47" s="5874" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW47" s="2753"/>
       <c r="AX47" s="5875" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY47" s="2755"/>
       <c r="AZ47" s="2756" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA47" s="2757"/>
       <c r="BB47" s="2758" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC47" s="2759"/>
       <c r="BD47" s="2760" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE47" s="2761"/>
       <c r="BF47" s="2762" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG47" s="2763"/>
       <c r="BH47" s="2764" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI47" s="2765"/>
       <c r="BJ47" s="2766"/>
       <c r="BK47" s="2767"/>
       <c r="BL47" s="2768" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM47" s="2769"/>
       <c r="BN47" s="5876" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO47" s="2771"/>
       <c r="BP47" s="5877" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ47" s="2773"/>
       <c r="BR47" s="2774" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS47" s="2775"/>
       <c r="BT47" s="2776" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU47" s="2777"/>
       <c r="BV47" s="2778" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW47" s="2779"/>
       <c r="BX47" s="2780" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY47" s="2781"/>
       <c r="BZ47" s="2782" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA47" s="2783"/>
       <c r="CB47" s="5878" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC47" s="2785"/>
       <c r="CD47" s="5879" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE47" s="2787"/>
       <c r="CF47" s="2788" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG47" s="2789"/>
       <c r="CH47" s="2790" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI47" s="2791"/>
       <c r="CJ47" s="2792" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK47" s="2793"/>
       <c r="CL47" s="2794" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM47" s="2795"/>
       <c r="CN47" s="2796" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO47" s="2797"/>
       <c r="CP47" s="5880" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ47" s="2799"/>
       <c r="CR47" s="2800" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS47" s="2801"/>
       <c r="CT47" s="2802"/>
@@ -27083,11 +27086,11 @@
       </c>
       <c r="AG48" s="2836"/>
       <c r="AH48" s="5870" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI48" s="2838"/>
       <c r="AJ48" s="5871" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" s="2840"/>
       <c r="AL48" s="2841" t="n">
@@ -27103,19 +27106,19 @@
       </c>
       <c r="AQ48" s="2846"/>
       <c r="AR48" s="5872" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS48" s="2848"/>
       <c r="AT48" s="5873" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU48" s="2850"/>
       <c r="AV48" s="5874" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW48" s="2852"/>
       <c r="AX48" s="5875" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY48" s="2854"/>
       <c r="AZ48" s="2855" t="n">
@@ -27143,11 +27146,11 @@
       </c>
       <c r="BM48" s="2868"/>
       <c r="BN48" s="5876" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO48" s="2870"/>
       <c r="BP48" s="5877" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ48" s="2872"/>
       <c r="BR48" s="2873" t="n">
@@ -27171,11 +27174,11 @@
       </c>
       <c r="CA48" s="2882"/>
       <c r="CB48" s="5878" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC48" s="2884"/>
       <c r="CD48" s="5879" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE48" s="2886"/>
       <c r="CF48" s="2887" t="n">
@@ -27199,7 +27202,7 @@
       </c>
       <c r="CO48" s="2896"/>
       <c r="CP48" s="5880" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ48" s="2898"/>
       <c r="CR48" s="2899"/>
@@ -27213,7 +27216,7 @@
       </c>
       <c r="B49" s="2904"/>
       <c r="C49" s="2905" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" s="2906"/>
       <c r="E49" s="2907"/>
@@ -27227,19 +27230,19 @@
       <c r="M49" s="2915"/>
       <c r="N49" s="2916"/>
       <c r="O49" s="2917" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P49" s="2918"/>
       <c r="Q49" s="2919"/>
       <c r="R49" s="2920"/>
       <c r="S49" s="2921" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T49" s="2922"/>
       <c r="U49" s="2923"/>
       <c r="V49" s="2924"/>
       <c r="W49" s="2925" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X49" s="2926"/>
       <c r="Y49" s="2927"/>
@@ -27248,137 +27251,137 @@
       <c r="AB49" s="2930"/>
       <c r="AC49" s="2931"/>
       <c r="AD49" s="2932" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE49" s="2933"/>
       <c r="AF49" s="2934" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG49" s="2935"/>
       <c r="AH49" s="5881" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI49" s="2937"/>
       <c r="AJ49" s="5882" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" s="2939"/>
       <c r="AL49" s="2940" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM49" s="2941"/>
       <c r="AN49" s="2942" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO49" s="2943"/>
       <c r="AP49" s="2944" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ49" s="2945"/>
       <c r="AR49" s="5883" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS49" s="2947"/>
       <c r="AT49" s="5884" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU49" s="2949"/>
       <c r="AV49" s="5885" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW49" s="2951"/>
       <c r="AX49" s="5886" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY49" s="2953"/>
       <c r="AZ49" s="2954" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA49" s="2955"/>
       <c r="BB49" s="2956" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC49" s="2957"/>
       <c r="BD49" s="2958" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE49" s="2959"/>
       <c r="BF49" s="2960" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG49" s="2961"/>
       <c r="BH49" s="2962" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI49" s="2963"/>
       <c r="BJ49" s="2964"/>
       <c r="BK49" s="2965"/>
       <c r="BL49" s="2966" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM49" s="2967"/>
       <c r="BN49" s="5887" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO49" s="2969"/>
       <c r="BP49" s="5888" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ49" s="2971"/>
       <c r="BR49" s="2972" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS49" s="2973"/>
       <c r="BT49" s="2974" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU49" s="2975"/>
       <c r="BV49" s="2976" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW49" s="2977"/>
       <c r="BX49" s="2978" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY49" s="2979"/>
       <c r="BZ49" s="2980" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA49" s="2981"/>
       <c r="CB49" s="5889" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC49" s="2983"/>
       <c r="CD49" s="5890" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE49" s="2985"/>
       <c r="CF49" s="2986" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG49" s="2987"/>
       <c r="CH49" s="2988" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI49" s="2989"/>
       <c r="CJ49" s="2990" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK49" s="2991"/>
       <c r="CL49" s="2992" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM49" s="2993"/>
       <c r="CN49" s="2994" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO49" s="2995"/>
       <c r="CP49" s="5891" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ49" s="2997"/>
       <c r="CR49" s="2998" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS49" s="2999"/>
       <c r="CT49" s="3000"/>
@@ -27423,11 +27426,11 @@
       </c>
       <c r="AG50" s="3034"/>
       <c r="AH50" s="5881" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI50" s="3036"/>
       <c r="AJ50" s="5882" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" s="3038"/>
       <c r="AL50" s="3039" t="n">
@@ -27443,19 +27446,19 @@
       </c>
       <c r="AQ50" s="3044"/>
       <c r="AR50" s="5883" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS50" s="3046"/>
       <c r="AT50" s="5884" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU50" s="3048"/>
       <c r="AV50" s="5885" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW50" s="3050"/>
       <c r="AX50" s="5886" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY50" s="3052"/>
       <c r="AZ50" s="3053" t="n">
@@ -27483,11 +27486,11 @@
       </c>
       <c r="BM50" s="3066"/>
       <c r="BN50" s="5887" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO50" s="3068"/>
       <c r="BP50" s="5888" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ50" s="3070"/>
       <c r="BR50" s="3071" t="n">
@@ -27511,11 +27514,11 @@
       </c>
       <c r="CA50" s="3080"/>
       <c r="CB50" s="5889" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC50" s="3082"/>
       <c r="CD50" s="5890" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE50" s="3084"/>
       <c r="CF50" s="3085" t="n">
@@ -27539,7 +27542,7 @@
       </c>
       <c r="CO50" s="3094"/>
       <c r="CP50" s="5891" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ50" s="3096"/>
       <c r="CR50" s="3097"/>
@@ -27553,7 +27556,7 @@
       </c>
       <c r="B51" s="3102"/>
       <c r="C51" s="3103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="3104"/>
       <c r="E51" s="3105"/>
@@ -27567,19 +27570,19 @@
       <c r="M51" s="3113"/>
       <c r="N51" s="3114"/>
       <c r="O51" s="3115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P51" s="3116"/>
       <c r="Q51" s="3117"/>
       <c r="R51" s="3118"/>
       <c r="S51" s="3119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T51" s="3120"/>
       <c r="U51" s="3121"/>
       <c r="V51" s="3122"/>
       <c r="W51" s="3123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X51" s="3124"/>
       <c r="Y51" s="3125"/>
@@ -27588,137 +27591,137 @@
       <c r="AB51" s="3128"/>
       <c r="AC51" s="3129"/>
       <c r="AD51" s="3130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE51" s="3131"/>
       <c r="AF51" s="3132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG51" s="3133"/>
       <c r="AH51" s="5892" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI51" s="3135"/>
       <c r="AJ51" s="5893" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" s="3137"/>
       <c r="AL51" s="3138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM51" s="3139"/>
       <c r="AN51" s="3140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO51" s="3141"/>
       <c r="AP51" s="3142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ51" s="3143"/>
       <c r="AR51" s="5894" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS51" s="3145"/>
       <c r="AT51" s="5895" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU51" s="3147"/>
       <c r="AV51" s="5896" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW51" s="3149"/>
       <c r="AX51" s="5897" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY51" s="3151"/>
       <c r="AZ51" s="3152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA51" s="3153"/>
       <c r="BB51" s="3154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC51" s="3155"/>
       <c r="BD51" s="3156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE51" s="3157"/>
       <c r="BF51" s="3158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG51" s="3159"/>
       <c r="BH51" s="3160" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI51" s="3161"/>
       <c r="BJ51" s="3162"/>
       <c r="BK51" s="3163"/>
       <c r="BL51" s="3164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM51" s="3165"/>
       <c r="BN51" s="5898" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO51" s="3167"/>
       <c r="BP51" s="5899" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ51" s="3169"/>
       <c r="BR51" s="3170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS51" s="3171"/>
       <c r="BT51" s="3172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU51" s="3173"/>
       <c r="BV51" s="3174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW51" s="3175"/>
       <c r="BX51" s="3176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY51" s="3177"/>
       <c r="BZ51" s="3178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA51" s="3179"/>
       <c r="CB51" s="5900" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC51" s="3181"/>
       <c r="CD51" s="5901" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE51" s="3183"/>
       <c r="CF51" s="3184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG51" s="3185"/>
       <c r="CH51" s="3186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI51" s="3187"/>
       <c r="CJ51" s="3188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK51" s="3189"/>
       <c r="CL51" s="3190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM51" s="3191"/>
       <c r="CN51" s="3192" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO51" s="3193"/>
       <c r="CP51" s="5902" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ51" s="3195"/>
       <c r="CR51" s="3196" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS51" s="3197"/>
       <c r="CT51" s="3198"/>
@@ -27763,11 +27766,11 @@
       </c>
       <c r="AG52" s="3232"/>
       <c r="AH52" s="5892" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI52" s="3234"/>
       <c r="AJ52" s="5893" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" s="3236"/>
       <c r="AL52" s="3237" t="n">
@@ -27783,19 +27786,19 @@
       </c>
       <c r="AQ52" s="3242"/>
       <c r="AR52" s="5894" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS52" s="3244"/>
       <c r="AT52" s="5895" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU52" s="3246"/>
       <c r="AV52" s="5896" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW52" s="3248"/>
       <c r="AX52" s="5897" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY52" s="3250"/>
       <c r="AZ52" s="3251" t="n">
@@ -27823,11 +27826,11 @@
       </c>
       <c r="BM52" s="3264"/>
       <c r="BN52" s="5898" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO52" s="3266"/>
       <c r="BP52" s="5899" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ52" s="3268"/>
       <c r="BR52" s="3269" t="n">
@@ -27851,11 +27854,11 @@
       </c>
       <c r="CA52" s="3278"/>
       <c r="CB52" s="5900" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC52" s="3280"/>
       <c r="CD52" s="5901" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE52" s="3282"/>
       <c r="CF52" s="3283" t="n">
@@ -27879,7 +27882,7 @@
       </c>
       <c r="CO52" s="3292"/>
       <c r="CP52" s="5902" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ52" s="3294"/>
       <c r="CR52" s="3295"/>
@@ -27893,7 +27896,7 @@
       </c>
       <c r="B53" s="3300"/>
       <c r="C53" s="3301" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D53" s="3302"/>
       <c r="E53" s="3303"/>
@@ -27907,19 +27910,19 @@
       <c r="M53" s="3311"/>
       <c r="N53" s="3312"/>
       <c r="O53" s="3313" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P53" s="3314"/>
       <c r="Q53" s="3315"/>
       <c r="R53" s="3316"/>
       <c r="S53" s="3317" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T53" s="3318"/>
       <c r="U53" s="3319"/>
       <c r="V53" s="3320"/>
       <c r="W53" s="3321" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X53" s="3322"/>
       <c r="Y53" s="3323"/>
@@ -27928,137 +27931,137 @@
       <c r="AB53" s="3326"/>
       <c r="AC53" s="3327"/>
       <c r="AD53" s="3328" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE53" s="3329"/>
       <c r="AF53" s="3330" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG53" s="3331"/>
       <c r="AH53" s="5903" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI53" s="3333"/>
       <c r="AJ53" s="5904" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" s="3335"/>
       <c r="AL53" s="3336" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM53" s="3337"/>
       <c r="AN53" s="3338" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO53" s="3339"/>
       <c r="AP53" s="3340" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ53" s="3341"/>
       <c r="AR53" s="5905" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS53" s="3343"/>
       <c r="AT53" s="5906" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU53" s="3345"/>
       <c r="AV53" s="5907" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW53" s="3347"/>
       <c r="AX53" s="5908" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY53" s="3349"/>
       <c r="AZ53" s="3350" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA53" s="3351"/>
       <c r="BB53" s="3352" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC53" s="3353"/>
       <c r="BD53" s="3354" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE53" s="3355"/>
       <c r="BF53" s="3356" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG53" s="3357"/>
       <c r="BH53" s="3358" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI53" s="3359"/>
       <c r="BJ53" s="3360"/>
       <c r="BK53" s="3361"/>
       <c r="BL53" s="3362" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM53" s="3363"/>
       <c r="BN53" s="5909" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO53" s="3365"/>
       <c r="BP53" s="5910" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ53" s="3367"/>
       <c r="BR53" s="3368" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS53" s="3369"/>
       <c r="BT53" s="3370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU53" s="3371"/>
       <c r="BV53" s="3372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW53" s="3373"/>
       <c r="BX53" s="3374" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY53" s="3375"/>
       <c r="BZ53" s="3376" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA53" s="3377"/>
       <c r="CB53" s="5911" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC53" s="3379"/>
       <c r="CD53" s="5912" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE53" s="3381"/>
       <c r="CF53" s="3382" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG53" s="3383"/>
       <c r="CH53" s="3384" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI53" s="3385"/>
       <c r="CJ53" s="3386" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK53" s="3387"/>
       <c r="CL53" s="3388" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM53" s="3389"/>
       <c r="CN53" s="3390" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO53" s="3391"/>
       <c r="CP53" s="5913" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ53" s="3393"/>
       <c r="CR53" s="3394" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS53" s="3395"/>
       <c r="CT53" s="3396"/>
@@ -28103,11 +28106,11 @@
       </c>
       <c r="AG54" s="3430"/>
       <c r="AH54" s="5903" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI54" s="3432"/>
       <c r="AJ54" s="5904" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" s="3434"/>
       <c r="AL54" s="3435" t="n">
@@ -28123,19 +28126,19 @@
       </c>
       <c r="AQ54" s="3440"/>
       <c r="AR54" s="5905" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS54" s="3442"/>
       <c r="AT54" s="5906" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU54" s="3444"/>
       <c r="AV54" s="5907" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW54" s="3446"/>
       <c r="AX54" s="5908" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY54" s="3448"/>
       <c r="AZ54" s="3449" t="n">
@@ -28163,11 +28166,11 @@
       </c>
       <c r="BM54" s="3462"/>
       <c r="BN54" s="5909" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO54" s="3464"/>
       <c r="BP54" s="5910" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ54" s="3466"/>
       <c r="BR54" s="3467" t="n">
@@ -28191,11 +28194,11 @@
       </c>
       <c r="CA54" s="3476"/>
       <c r="CB54" s="5911" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC54" s="3478"/>
       <c r="CD54" s="5912" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE54" s="3480"/>
       <c r="CF54" s="3481" t="n">
@@ -28219,7 +28222,7 @@
       </c>
       <c r="CO54" s="3490"/>
       <c r="CP54" s="5913" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ54" s="3492"/>
       <c r="CR54" s="3493"/>
@@ -28233,7 +28236,7 @@
       </c>
       <c r="B55" s="3498"/>
       <c r="C55" s="3499" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D55" s="3500"/>
       <c r="E55" s="3501"/>
@@ -28247,19 +28250,19 @@
       <c r="M55" s="3509"/>
       <c r="N55" s="3510"/>
       <c r="O55" s="3511" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P55" s="3512"/>
       <c r="Q55" s="3513"/>
       <c r="R55" s="3514"/>
       <c r="S55" s="3515" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T55" s="3516"/>
       <c r="U55" s="3517"/>
       <c r="V55" s="3518"/>
       <c r="W55" s="3519" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X55" s="3520"/>
       <c r="Y55" s="3521"/>
@@ -28268,137 +28271,137 @@
       <c r="AB55" s="3524"/>
       <c r="AC55" s="3525"/>
       <c r="AD55" s="3526" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE55" s="3527"/>
       <c r="AF55" s="3528" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG55" s="3529"/>
       <c r="AH55" s="5914" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI55" s="3531"/>
       <c r="AJ55" s="5915" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" s="3533"/>
       <c r="AL55" s="3534" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM55" s="3535"/>
       <c r="AN55" s="3536" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO55" s="3537"/>
       <c r="AP55" s="3538" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ55" s="3539"/>
       <c r="AR55" s="5916" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS55" s="3541"/>
       <c r="AT55" s="5917" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU55" s="3543"/>
       <c r="AV55" s="5918" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW55" s="3545"/>
       <c r="AX55" s="5919" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY55" s="3547"/>
       <c r="AZ55" s="3548" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA55" s="3549"/>
       <c r="BB55" s="3550" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC55" s="3551"/>
       <c r="BD55" s="3552" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE55" s="3553"/>
       <c r="BF55" s="3554" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG55" s="3555"/>
       <c r="BH55" s="3556" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI55" s="3557"/>
       <c r="BJ55" s="3558"/>
       <c r="BK55" s="3559"/>
       <c r="BL55" s="3560" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM55" s="3561"/>
       <c r="BN55" s="5920" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO55" s="3563"/>
       <c r="BP55" s="5921" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ55" s="3565"/>
       <c r="BR55" s="3566" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS55" s="3567"/>
       <c r="BT55" s="3568" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU55" s="3569"/>
       <c r="BV55" s="3570" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW55" s="3571"/>
       <c r="BX55" s="3572" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY55" s="3573"/>
       <c r="BZ55" s="3574" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA55" s="3575"/>
       <c r="CB55" s="5922" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC55" s="3577"/>
       <c r="CD55" s="5923" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE55" s="3579"/>
       <c r="CF55" s="3580" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG55" s="3581"/>
       <c r="CH55" s="3582" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI55" s="3583"/>
       <c r="CJ55" s="3584" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK55" s="3585"/>
       <c r="CL55" s="3586" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM55" s="3587"/>
       <c r="CN55" s="3588" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO55" s="3589"/>
       <c r="CP55" s="5924" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ55" s="3591"/>
       <c r="CR55" s="3592" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS55" s="3593"/>
       <c r="CT55" s="3594"/>
@@ -28443,11 +28446,11 @@
       </c>
       <c r="AG56" s="3628"/>
       <c r="AH56" s="5914" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI56" s="3630"/>
       <c r="AJ56" s="5915" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK56" s="3632"/>
       <c r="AL56" s="3633" t="n">
@@ -28463,19 +28466,19 @@
       </c>
       <c r="AQ56" s="3638"/>
       <c r="AR56" s="5916" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS56" s="3640"/>
       <c r="AT56" s="5917" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU56" s="3642"/>
       <c r="AV56" s="5918" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW56" s="3644"/>
       <c r="AX56" s="5919" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY56" s="3646"/>
       <c r="AZ56" s="3647" t="n">
@@ -28503,11 +28506,11 @@
       </c>
       <c r="BM56" s="3660"/>
       <c r="BN56" s="5920" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO56" s="3662"/>
       <c r="BP56" s="5921" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ56" s="3664"/>
       <c r="BR56" s="3665" t="n">
@@ -28531,11 +28534,11 @@
       </c>
       <c r="CA56" s="3674"/>
       <c r="CB56" s="5922" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC56" s="3676"/>
       <c r="CD56" s="5923" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE56" s="3678"/>
       <c r="CF56" s="3679" t="n">
@@ -28559,7 +28562,7 @@
       </c>
       <c r="CO56" s="3688"/>
       <c r="CP56" s="5924" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ56" s="3690"/>
       <c r="CR56" s="3691"/>
@@ -28573,7 +28576,7 @@
       </c>
       <c r="B57" s="3696"/>
       <c r="C57" s="3697" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" s="3698"/>
       <c r="E57" s="3699"/>
@@ -28587,19 +28590,19 @@
       <c r="M57" s="3707"/>
       <c r="N57" s="3708"/>
       <c r="O57" s="3709" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P57" s="3710"/>
       <c r="Q57" s="3711"/>
       <c r="R57" s="3712"/>
       <c r="S57" s="3713" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T57" s="3714"/>
       <c r="U57" s="3715"/>
       <c r="V57" s="3716"/>
       <c r="W57" s="3717" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X57" s="3718"/>
       <c r="Y57" s="3719"/>
@@ -28608,137 +28611,137 @@
       <c r="AB57" s="3722"/>
       <c r="AC57" s="3723"/>
       <c r="AD57" s="3724" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE57" s="3725"/>
       <c r="AF57" s="3726" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG57" s="3727"/>
       <c r="AH57" s="5925" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI57" s="3729"/>
       <c r="AJ57" s="5926" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" s="3731"/>
       <c r="AL57" s="3732" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM57" s="3733"/>
       <c r="AN57" s="3734" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO57" s="3735"/>
       <c r="AP57" s="3736" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ57" s="3737"/>
       <c r="AR57" s="5927" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS57" s="3739"/>
       <c r="AT57" s="5928" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU57" s="3741"/>
       <c r="AV57" s="5929" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW57" s="3743"/>
       <c r="AX57" s="5930" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY57" s="3745"/>
       <c r="AZ57" s="3746" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA57" s="3747"/>
       <c r="BB57" s="3748" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC57" s="3749"/>
       <c r="BD57" s="3750" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE57" s="3751"/>
       <c r="BF57" s="3752" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG57" s="3753"/>
       <c r="BH57" s="3754" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI57" s="3755"/>
       <c r="BJ57" s="3756"/>
       <c r="BK57" s="3757"/>
       <c r="BL57" s="3758" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM57" s="3759"/>
       <c r="BN57" s="5931" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO57" s="3761"/>
       <c r="BP57" s="5932" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ57" s="3763"/>
       <c r="BR57" s="3764" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS57" s="3765"/>
       <c r="BT57" s="3766" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU57" s="3767"/>
       <c r="BV57" s="3768" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW57" s="3769"/>
       <c r="BX57" s="3770" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY57" s="3771"/>
       <c r="BZ57" s="3772" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA57" s="3773"/>
       <c r="CB57" s="5933" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC57" s="3775"/>
       <c r="CD57" s="5934" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE57" s="3777"/>
       <c r="CF57" s="3778" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG57" s="3779"/>
       <c r="CH57" s="3780" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI57" s="3781"/>
       <c r="CJ57" s="3782" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK57" s="3783"/>
       <c r="CL57" s="3784" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM57" s="3785"/>
       <c r="CN57" s="3786" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO57" s="3787"/>
       <c r="CP57" s="5935" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ57" s="3789"/>
       <c r="CR57" s="3790" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS57" s="3791"/>
       <c r="CT57" s="3792"/>
@@ -28783,11 +28786,11 @@
       </c>
       <c r="AG58" s="3826"/>
       <c r="AH58" s="5925" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI58" s="3828"/>
       <c r="AJ58" s="5926" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" s="3830"/>
       <c r="AL58" s="3831" t="n">
@@ -28803,19 +28806,19 @@
       </c>
       <c r="AQ58" s="3836"/>
       <c r="AR58" s="5927" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS58" s="3838"/>
       <c r="AT58" s="5928" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU58" s="3840"/>
       <c r="AV58" s="5929" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW58" s="3842"/>
       <c r="AX58" s="5930" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY58" s="3844"/>
       <c r="AZ58" s="3845" t="n">
@@ -28843,11 +28846,11 @@
       </c>
       <c r="BM58" s="3858"/>
       <c r="BN58" s="5931" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO58" s="3860"/>
       <c r="BP58" s="5932" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ58" s="3862"/>
       <c r="BR58" s="3863" t="n">
@@ -28871,11 +28874,11 @@
       </c>
       <c r="CA58" s="3872"/>
       <c r="CB58" s="5933" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC58" s="3874"/>
       <c r="CD58" s="5934" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE58" s="3876"/>
       <c r="CF58" s="3877" t="n">
@@ -28899,7 +28902,7 @@
       </c>
       <c r="CO58" s="3886"/>
       <c r="CP58" s="5935" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ58" s="3888"/>
       <c r="CR58" s="3889"/>
@@ -28913,7 +28916,7 @@
       </c>
       <c r="B59" s="3894"/>
       <c r="C59" s="3895" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D59" s="3896"/>
       <c r="E59" s="3897"/>
@@ -28927,19 +28930,19 @@
       <c r="M59" s="3905"/>
       <c r="N59" s="3906"/>
       <c r="O59" s="3907" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P59" s="3908"/>
       <c r="Q59" s="3909"/>
       <c r="R59" s="3910"/>
       <c r="S59" s="3911" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T59" s="3912"/>
       <c r="U59" s="3913"/>
       <c r="V59" s="3914"/>
       <c r="W59" s="3915" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X59" s="3916"/>
       <c r="Y59" s="3917"/>
@@ -28948,137 +28951,137 @@
       <c r="AB59" s="3920"/>
       <c r="AC59" s="3921"/>
       <c r="AD59" s="3922" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE59" s="3923"/>
       <c r="AF59" s="3924" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG59" s="3925"/>
       <c r="AH59" s="5936" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI59" s="3927"/>
       <c r="AJ59" s="5937" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" s="3929"/>
       <c r="AL59" s="3930" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM59" s="3931"/>
       <c r="AN59" s="3932" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO59" s="3933"/>
       <c r="AP59" s="3934" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ59" s="3935"/>
       <c r="AR59" s="5938" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS59" s="3937"/>
       <c r="AT59" s="5939" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU59" s="3939"/>
       <c r="AV59" s="5940" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW59" s="3941"/>
       <c r="AX59" s="5941" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY59" s="3943"/>
       <c r="AZ59" s="3944" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA59" s="3945"/>
       <c r="BB59" s="3946" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC59" s="3947"/>
       <c r="BD59" s="3948" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE59" s="3949"/>
       <c r="BF59" s="3950" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG59" s="3951"/>
       <c r="BH59" s="3952" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI59" s="3953"/>
       <c r="BJ59" s="3954"/>
       <c r="BK59" s="3955"/>
       <c r="BL59" s="3956" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM59" s="3957"/>
       <c r="BN59" s="5942" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO59" s="3959"/>
       <c r="BP59" s="5943" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ59" s="3961"/>
       <c r="BR59" s="3962" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS59" s="3963"/>
       <c r="BT59" s="3964" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU59" s="3965"/>
       <c r="BV59" s="3966" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW59" s="3967"/>
       <c r="BX59" s="3968" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY59" s="3969"/>
       <c r="BZ59" s="3970" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA59" s="3971"/>
       <c r="CB59" s="5944" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC59" s="3973"/>
       <c r="CD59" s="5945" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE59" s="3975"/>
       <c r="CF59" s="3976" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG59" s="3977"/>
       <c r="CH59" s="3978" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI59" s="3979"/>
       <c r="CJ59" s="3980" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK59" s="3981"/>
       <c r="CL59" s="3982" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM59" s="3983"/>
       <c r="CN59" s="3984" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO59" s="3985"/>
       <c r="CP59" s="5946" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ59" s="3987"/>
       <c r="CR59" s="3988" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS59" s="3989"/>
       <c r="CT59" s="3990"/>
@@ -29123,11 +29126,11 @@
       </c>
       <c r="AG60" s="4024"/>
       <c r="AH60" s="5936" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI60" s="4026"/>
       <c r="AJ60" s="5937" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" s="4028"/>
       <c r="AL60" s="4029" t="n">
@@ -29143,19 +29146,19 @@
       </c>
       <c r="AQ60" s="4034"/>
       <c r="AR60" s="5938" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS60" s="4036"/>
       <c r="AT60" s="5939" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU60" s="4038"/>
       <c r="AV60" s="5940" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW60" s="4040"/>
       <c r="AX60" s="5941" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY60" s="4042"/>
       <c r="AZ60" s="4043" t="n">
@@ -29183,11 +29186,11 @@
       </c>
       <c r="BM60" s="4056"/>
       <c r="BN60" s="5942" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO60" s="4058"/>
       <c r="BP60" s="5943" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ60" s="4060"/>
       <c r="BR60" s="4061" t="n">
@@ -29211,11 +29214,11 @@
       </c>
       <c r="CA60" s="4070"/>
       <c r="CB60" s="5944" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC60" s="4072"/>
       <c r="CD60" s="5945" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE60" s="4074"/>
       <c r="CF60" s="4075" t="n">
@@ -29239,7 +29242,7 @@
       </c>
       <c r="CO60" s="4084"/>
       <c r="CP60" s="5946" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ60" s="4086"/>
       <c r="CR60" s="4087"/>
@@ -29253,7 +29256,7 @@
       </c>
       <c r="B61" s="4092"/>
       <c r="C61" s="4093" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" s="4094"/>
       <c r="E61" s="4095"/>
@@ -29267,19 +29270,19 @@
       <c r="M61" s="4103"/>
       <c r="N61" s="4104"/>
       <c r="O61" s="4105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P61" s="4106"/>
       <c r="Q61" s="4107"/>
       <c r="R61" s="4108"/>
       <c r="S61" s="4109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T61" s="4110"/>
       <c r="U61" s="4111"/>
       <c r="V61" s="4112"/>
       <c r="W61" s="4113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X61" s="4114"/>
       <c r="Y61" s="4115"/>
@@ -29288,137 +29291,137 @@
       <c r="AB61" s="4118"/>
       <c r="AC61" s="4119"/>
       <c r="AD61" s="4120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE61" s="4121"/>
       <c r="AF61" s="4122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG61" s="4123"/>
       <c r="AH61" s="5947" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI61" s="4125"/>
       <c r="AJ61" s="5948" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" s="4127"/>
       <c r="AL61" s="4128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM61" s="4129"/>
       <c r="AN61" s="4130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO61" s="4131"/>
       <c r="AP61" s="4132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ61" s="4133"/>
       <c r="AR61" s="5949" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS61" s="4135"/>
       <c r="AT61" s="5950" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU61" s="4137"/>
       <c r="AV61" s="5951" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW61" s="4139"/>
       <c r="AX61" s="5952" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY61" s="4141"/>
       <c r="AZ61" s="4142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA61" s="4143"/>
       <c r="BB61" s="4144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC61" s="4145"/>
       <c r="BD61" s="4146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE61" s="4147"/>
       <c r="BF61" s="4148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG61" s="4149"/>
       <c r="BH61" s="4150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI61" s="4151"/>
       <c r="BJ61" s="4152"/>
       <c r="BK61" s="4153"/>
       <c r="BL61" s="4154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM61" s="4155"/>
       <c r="BN61" s="5953" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO61" s="4157"/>
       <c r="BP61" s="5954" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ61" s="4159"/>
       <c r="BR61" s="4160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS61" s="4161"/>
       <c r="BT61" s="4162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU61" s="4163"/>
       <c r="BV61" s="4164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW61" s="4165"/>
       <c r="BX61" s="4166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY61" s="4167"/>
       <c r="BZ61" s="4168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA61" s="4169"/>
       <c r="CB61" s="5955" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC61" s="4171"/>
       <c r="CD61" s="5956" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE61" s="4173"/>
       <c r="CF61" s="4174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG61" s="4175"/>
       <c r="CH61" s="4176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI61" s="4177"/>
       <c r="CJ61" s="4178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK61" s="4179"/>
       <c r="CL61" s="4180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM61" s="4181"/>
       <c r="CN61" s="4182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO61" s="4183"/>
       <c r="CP61" s="5957" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ61" s="4185"/>
       <c r="CR61" s="4186" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS61" s="4187"/>
       <c r="CT61" s="4188"/>
@@ -29463,11 +29466,11 @@
       </c>
       <c r="AG62" s="4222"/>
       <c r="AH62" s="5947" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI62" s="4224"/>
       <c r="AJ62" s="5948" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK62" s="4226"/>
       <c r="AL62" s="4227" t="n">
@@ -29483,19 +29486,19 @@
       </c>
       <c r="AQ62" s="4232"/>
       <c r="AR62" s="5949" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS62" s="4234"/>
       <c r="AT62" s="5950" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU62" s="4236"/>
       <c r="AV62" s="5951" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW62" s="4238"/>
       <c r="AX62" s="5952" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY62" s="4240"/>
       <c r="AZ62" s="4241" t="n">
@@ -29523,11 +29526,11 @@
       </c>
       <c r="BM62" s="4254"/>
       <c r="BN62" s="5953" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO62" s="4256"/>
       <c r="BP62" s="5954" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ62" s="4258"/>
       <c r="BR62" s="4259" t="n">
@@ -29551,11 +29554,11 @@
       </c>
       <c r="CA62" s="4268"/>
       <c r="CB62" s="5955" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC62" s="4270"/>
       <c r="CD62" s="5956" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE62" s="4272"/>
       <c r="CF62" s="4273" t="n">
@@ -29579,7 +29582,7 @@
       </c>
       <c r="CO62" s="4282"/>
       <c r="CP62" s="5957" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ62" s="4284"/>
       <c r="CR62" s="4285"/>
@@ -29593,7 +29596,7 @@
       </c>
       <c r="B63" s="4290"/>
       <c r="C63" s="4291" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63" s="4292"/>
       <c r="E63" s="4293"/>
@@ -29607,19 +29610,19 @@
       <c r="M63" s="4301"/>
       <c r="N63" s="4302"/>
       <c r="O63" s="4303" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P63" s="4304"/>
       <c r="Q63" s="4305"/>
       <c r="R63" s="4306"/>
       <c r="S63" s="4307" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T63" s="4308"/>
       <c r="U63" s="4309"/>
       <c r="V63" s="4310"/>
       <c r="W63" s="4311" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X63" s="4312"/>
       <c r="Y63" s="4313"/>
@@ -29628,137 +29631,137 @@
       <c r="AB63" s="4316"/>
       <c r="AC63" s="4317"/>
       <c r="AD63" s="4318" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE63" s="4319"/>
       <c r="AF63" s="4320" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG63" s="4321"/>
       <c r="AH63" s="5958" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI63" s="4323"/>
       <c r="AJ63" s="5959" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" s="4325"/>
       <c r="AL63" s="4326" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM63" s="4327"/>
       <c r="AN63" s="4328" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO63" s="4329"/>
       <c r="AP63" s="4330" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ63" s="4331"/>
       <c r="AR63" s="5960" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS63" s="4333"/>
       <c r="AT63" s="5961" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU63" s="4335"/>
       <c r="AV63" s="5962" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW63" s="4337"/>
       <c r="AX63" s="5963" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY63" s="4339"/>
       <c r="AZ63" s="4340" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA63" s="4341"/>
       <c r="BB63" s="4342" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC63" s="4343"/>
       <c r="BD63" s="4344" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE63" s="4345"/>
       <c r="BF63" s="4346" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG63" s="4347"/>
       <c r="BH63" s="4348" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI63" s="4349"/>
       <c r="BJ63" s="4350"/>
       <c r="BK63" s="4351"/>
       <c r="BL63" s="4352" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM63" s="4353"/>
       <c r="BN63" s="5964" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO63" s="4355"/>
       <c r="BP63" s="5965" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ63" s="4357"/>
       <c r="BR63" s="4358" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS63" s="4359"/>
       <c r="BT63" s="4360" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU63" s="4361"/>
       <c r="BV63" s="4362" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW63" s="4363"/>
       <c r="BX63" s="4364" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY63" s="4365"/>
       <c r="BZ63" s="4366" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA63" s="4367"/>
       <c r="CB63" s="5966" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC63" s="4369"/>
       <c r="CD63" s="5967" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE63" s="4371"/>
       <c r="CF63" s="4372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG63" s="4373"/>
       <c r="CH63" s="4374" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI63" s="4375"/>
       <c r="CJ63" s="4376" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK63" s="4377"/>
       <c r="CL63" s="4378" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM63" s="4379"/>
       <c r="CN63" s="4380" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO63" s="4381"/>
       <c r="CP63" s="5968" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ63" s="4383"/>
       <c r="CR63" s="4384" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS63" s="4385"/>
       <c r="CT63" s="4386"/>
@@ -29803,11 +29806,11 @@
       </c>
       <c r="AG64" s="4420"/>
       <c r="AH64" s="5958" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI64" s="4422"/>
       <c r="AJ64" s="5959" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK64" s="4424"/>
       <c r="AL64" s="4425" t="n">
@@ -29823,19 +29826,19 @@
       </c>
       <c r="AQ64" s="4430"/>
       <c r="AR64" s="5960" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS64" s="4432"/>
       <c r="AT64" s="5961" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU64" s="4434"/>
       <c r="AV64" s="5962" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW64" s="4436"/>
       <c r="AX64" s="5963" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY64" s="4438"/>
       <c r="AZ64" s="4439" t="n">
@@ -29863,11 +29866,11 @@
       </c>
       <c r="BM64" s="4452"/>
       <c r="BN64" s="5964" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO64" s="4454"/>
       <c r="BP64" s="5965" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ64" s="4456"/>
       <c r="BR64" s="4457" t="n">
@@ -29891,11 +29894,11 @@
       </c>
       <c r="CA64" s="4466"/>
       <c r="CB64" s="5966" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC64" s="4468"/>
       <c r="CD64" s="5967" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE64" s="4470"/>
       <c r="CF64" s="4471" t="n">
@@ -29919,7 +29922,7 @@
       </c>
       <c r="CO64" s="4480"/>
       <c r="CP64" s="5968" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ64" s="4482"/>
       <c r="CR64" s="4483"/>
@@ -29933,7 +29936,7 @@
       </c>
       <c r="B65" s="4488"/>
       <c r="C65" s="4489" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="4490"/>
       <c r="E65" s="4491"/>
@@ -29947,19 +29950,19 @@
       <c r="M65" s="4499"/>
       <c r="N65" s="4500"/>
       <c r="O65" s="4501" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P65" s="4502"/>
       <c r="Q65" s="4503"/>
       <c r="R65" s="4504"/>
       <c r="S65" s="4505" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T65" s="4506"/>
       <c r="U65" s="4507"/>
       <c r="V65" s="4508"/>
       <c r="W65" s="4509" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X65" s="4510"/>
       <c r="Y65" s="4511"/>
@@ -29968,137 +29971,137 @@
       <c r="AB65" s="4514"/>
       <c r="AC65" s="4515"/>
       <c r="AD65" s="4516" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE65" s="4517"/>
       <c r="AF65" s="4518" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG65" s="4519"/>
       <c r="AH65" s="5969" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI65" s="4521"/>
       <c r="AJ65" s="5970" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" s="4523"/>
       <c r="AL65" s="4524" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM65" s="4525"/>
       <c r="AN65" s="4526" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO65" s="4527"/>
       <c r="AP65" s="4528" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ65" s="4529"/>
       <c r="AR65" s="5971" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS65" s="4531"/>
       <c r="AT65" s="5972" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU65" s="4533"/>
       <c r="AV65" s="5973" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW65" s="4535"/>
       <c r="AX65" s="5974" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY65" s="4537"/>
       <c r="AZ65" s="4538" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA65" s="4539"/>
       <c r="BB65" s="4540" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC65" s="4541"/>
       <c r="BD65" s="4542" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE65" s="4543"/>
       <c r="BF65" s="4544" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG65" s="4545"/>
       <c r="BH65" s="4546" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI65" s="4547"/>
       <c r="BJ65" s="4548"/>
       <c r="BK65" s="4549"/>
       <c r="BL65" s="4550" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM65" s="4551"/>
       <c r="BN65" s="5975" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO65" s="4553"/>
       <c r="BP65" s="5976" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ65" s="4555"/>
       <c r="BR65" s="4556" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS65" s="4557"/>
       <c r="BT65" s="4558" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU65" s="4559"/>
       <c r="BV65" s="4560" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW65" s="4561"/>
       <c r="BX65" s="4562" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY65" s="4563"/>
       <c r="BZ65" s="4564" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA65" s="4565"/>
       <c r="CB65" s="5977" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC65" s="4567"/>
       <c r="CD65" s="5978" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE65" s="4569"/>
       <c r="CF65" s="4570" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG65" s="4571"/>
       <c r="CH65" s="4572" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI65" s="4573"/>
       <c r="CJ65" s="4574" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK65" s="4575"/>
       <c r="CL65" s="4576" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM65" s="4577"/>
       <c r="CN65" s="4578" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO65" s="4579"/>
       <c r="CP65" s="5979" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ65" s="4581"/>
       <c r="CR65" s="4582" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS65" s="4583"/>
       <c r="CT65" s="4584"/>
@@ -30143,11 +30146,11 @@
       </c>
       <c r="AG66" s="4618"/>
       <c r="AH66" s="5969" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI66" s="4620"/>
       <c r="AJ66" s="5970" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" s="4622"/>
       <c r="AL66" s="4623" t="n">
@@ -30163,19 +30166,19 @@
       </c>
       <c r="AQ66" s="4628"/>
       <c r="AR66" s="5971" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS66" s="4630"/>
       <c r="AT66" s="5972" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU66" s="4632"/>
       <c r="AV66" s="5973" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW66" s="4634"/>
       <c r="AX66" s="5974" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY66" s="4636"/>
       <c r="AZ66" s="4637" t="n">
@@ -30203,11 +30206,11 @@
       </c>
       <c r="BM66" s="4650"/>
       <c r="BN66" s="5975" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO66" s="4652"/>
       <c r="BP66" s="5976" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ66" s="4654"/>
       <c r="BR66" s="4655" t="n">
@@ -30231,11 +30234,11 @@
       </c>
       <c r="CA66" s="4664"/>
       <c r="CB66" s="5977" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC66" s="4666"/>
       <c r="CD66" s="5978" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE66" s="4668"/>
       <c r="CF66" s="4669" t="n">
@@ -30259,7 +30262,7 @@
       </c>
       <c r="CO66" s="4678"/>
       <c r="CP66" s="5979" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ66" s="4680"/>
       <c r="CR66" s="4681"/>
@@ -30273,7 +30276,7 @@
       </c>
       <c r="B67" s="4686"/>
       <c r="C67" s="4687" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D67" s="4688"/>
       <c r="E67" s="4689"/>
@@ -30287,19 +30290,19 @@
       <c r="M67" s="4697"/>
       <c r="N67" s="4698"/>
       <c r="O67" s="4699" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P67" s="4700"/>
       <c r="Q67" s="4701"/>
       <c r="R67" s="4702"/>
       <c r="S67" s="4703" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T67" s="4704"/>
       <c r="U67" s="4705"/>
       <c r="V67" s="4706"/>
       <c r="W67" s="4707" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X67" s="4708"/>
       <c r="Y67" s="4709"/>
@@ -30308,137 +30311,137 @@
       <c r="AB67" s="4712"/>
       <c r="AC67" s="4713"/>
       <c r="AD67" s="4714" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE67" s="4715"/>
       <c r="AF67" s="4716" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG67" s="4717"/>
       <c r="AH67" s="5980" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI67" s="4719"/>
       <c r="AJ67" s="5981" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" s="4721"/>
       <c r="AL67" s="4722" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM67" s="4723"/>
       <c r="AN67" s="4724" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO67" s="4725"/>
       <c r="AP67" s="4726" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ67" s="4727"/>
       <c r="AR67" s="5982" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS67" s="4729"/>
       <c r="AT67" s="5983" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU67" s="4731"/>
       <c r="AV67" s="5984" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW67" s="4733"/>
       <c r="AX67" s="5985" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY67" s="4735"/>
       <c r="AZ67" s="4736" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA67" s="4737"/>
       <c r="BB67" s="4738" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC67" s="4739"/>
       <c r="BD67" s="4740" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE67" s="4741"/>
       <c r="BF67" s="4742" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG67" s="4743"/>
       <c r="BH67" s="4744" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI67" s="4745"/>
       <c r="BJ67" s="4746"/>
       <c r="BK67" s="4747"/>
       <c r="BL67" s="4748" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM67" s="4749"/>
       <c r="BN67" s="5986" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO67" s="4751"/>
       <c r="BP67" s="5987" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ67" s="4753"/>
       <c r="BR67" s="4754" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS67" s="4755"/>
       <c r="BT67" s="4756" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU67" s="4757"/>
       <c r="BV67" s="4758" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW67" s="4759"/>
       <c r="BX67" s="4760" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY67" s="4761"/>
       <c r="BZ67" s="4762" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA67" s="4763"/>
       <c r="CB67" s="5988" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC67" s="4765"/>
       <c r="CD67" s="5989" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE67" s="4767"/>
       <c r="CF67" s="4768" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG67" s="4769"/>
       <c r="CH67" s="4770" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI67" s="4771"/>
       <c r="CJ67" s="4772" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK67" s="4773"/>
       <c r="CL67" s="4774" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM67" s="4775"/>
       <c r="CN67" s="4776" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO67" s="4777"/>
       <c r="CP67" s="5990" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ67" s="4779"/>
       <c r="CR67" s="4780" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS67" s="4781"/>
       <c r="CT67" s="4782"/>
@@ -30483,11 +30486,11 @@
       </c>
       <c r="AG68" s="4816"/>
       <c r="AH68" s="5980" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI68" s="4818"/>
       <c r="AJ68" s="5981" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK68" s="4820"/>
       <c r="AL68" s="4821" t="n">
@@ -30503,19 +30506,19 @@
       </c>
       <c r="AQ68" s="4826"/>
       <c r="AR68" s="5982" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS68" s="4828"/>
       <c r="AT68" s="5983" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU68" s="4830"/>
       <c r="AV68" s="5984" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW68" s="4832"/>
       <c r="AX68" s="5985" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY68" s="4834"/>
       <c r="AZ68" s="4835" t="n">
@@ -30543,11 +30546,11 @@
       </c>
       <c r="BM68" s="4848"/>
       <c r="BN68" s="5986" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO68" s="4850"/>
       <c r="BP68" s="5987" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ68" s="4852"/>
       <c r="BR68" s="4853" t="n">
@@ -30571,11 +30574,11 @@
       </c>
       <c r="CA68" s="4862"/>
       <c r="CB68" s="5988" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC68" s="4864"/>
       <c r="CD68" s="5989" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE68" s="4866"/>
       <c r="CF68" s="4867" t="n">
@@ -30599,7 +30602,7 @@
       </c>
       <c r="CO68" s="4876"/>
       <c r="CP68" s="5990" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ68" s="4878"/>
       <c r="CR68" s="4879"/>
@@ -30613,7 +30616,7 @@
       </c>
       <c r="B69" s="4884"/>
       <c r="C69" s="4885" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D69" s="4886"/>
       <c r="E69" s="4887"/>
@@ -30627,19 +30630,19 @@
       <c r="M69" s="4895"/>
       <c r="N69" s="4896"/>
       <c r="O69" s="4897" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P69" s="4898"/>
       <c r="Q69" s="4899"/>
       <c r="R69" s="4900"/>
       <c r="S69" s="4901" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T69" s="4902"/>
       <c r="U69" s="4903"/>
       <c r="V69" s="4904"/>
       <c r="W69" s="4905" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X69" s="4906"/>
       <c r="Y69" s="4907"/>
@@ -30648,137 +30651,137 @@
       <c r="AB69" s="4910"/>
       <c r="AC69" s="4911"/>
       <c r="AD69" s="4912" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE69" s="4913"/>
       <c r="AF69" s="4914" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG69" s="4915"/>
       <c r="AH69" s="5991" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI69" s="4917"/>
       <c r="AJ69" s="5992" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" s="4919"/>
       <c r="AL69" s="4920" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM69" s="4921"/>
       <c r="AN69" s="4922" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO69" s="4923"/>
       <c r="AP69" s="4924" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ69" s="4925"/>
       <c r="AR69" s="5993" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS69" s="4927"/>
       <c r="AT69" s="5994" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU69" s="4929"/>
       <c r="AV69" s="5995" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW69" s="4931"/>
       <c r="AX69" s="5996" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY69" s="4933"/>
       <c r="AZ69" s="4934" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA69" s="4935"/>
       <c r="BB69" s="4936" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC69" s="4937"/>
       <c r="BD69" s="4938" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE69" s="4939"/>
       <c r="BF69" s="4940" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG69" s="4941"/>
       <c r="BH69" s="4942" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI69" s="4943"/>
       <c r="BJ69" s="4944"/>
       <c r="BK69" s="4945"/>
       <c r="BL69" s="4946" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM69" s="4947"/>
       <c r="BN69" s="5997" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO69" s="4949"/>
       <c r="BP69" s="5998" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ69" s="4951"/>
       <c r="BR69" s="4952" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS69" s="4953"/>
       <c r="BT69" s="4954" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU69" s="4955"/>
       <c r="BV69" s="4956" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW69" s="4957"/>
       <c r="BX69" s="4958" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY69" s="4959"/>
       <c r="BZ69" s="4960" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA69" s="4961"/>
       <c r="CB69" s="5999" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC69" s="4963"/>
       <c r="CD69" s="6000" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE69" s="4965"/>
       <c r="CF69" s="4966" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG69" s="4967"/>
       <c r="CH69" s="4968" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI69" s="4969"/>
       <c r="CJ69" s="4970" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK69" s="4971"/>
       <c r="CL69" s="4972" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM69" s="4973"/>
       <c r="CN69" s="4974" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO69" s="4975"/>
       <c r="CP69" s="6001" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ69" s="4977"/>
       <c r="CR69" s="4978" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS69" s="4979"/>
       <c r="CT69" s="4980"/>
@@ -30823,11 +30826,11 @@
       </c>
       <c r="AG70" s="5014"/>
       <c r="AH70" s="5991" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI70" s="5016"/>
       <c r="AJ70" s="5992" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK70" s="5018"/>
       <c r="AL70" s="5019" t="n">
@@ -30843,19 +30846,19 @@
       </c>
       <c r="AQ70" s="5024"/>
       <c r="AR70" s="5993" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS70" s="5026"/>
       <c r="AT70" s="5994" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU70" s="5028"/>
       <c r="AV70" s="5995" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW70" s="5030"/>
       <c r="AX70" s="5996" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY70" s="5032"/>
       <c r="AZ70" s="5033" t="n">
@@ -30883,11 +30886,11 @@
       </c>
       <c r="BM70" s="5046"/>
       <c r="BN70" s="5997" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO70" s="5048"/>
       <c r="BP70" s="5998" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ70" s="5050"/>
       <c r="BR70" s="5051" t="n">
@@ -30911,11 +30914,11 @@
       </c>
       <c r="CA70" s="5060"/>
       <c r="CB70" s="5999" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC70" s="5062"/>
       <c r="CD70" s="6000" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE70" s="5064"/>
       <c r="CF70" s="5065" t="n">
@@ -30939,7 +30942,7 @@
       </c>
       <c r="CO70" s="5074"/>
       <c r="CP70" s="6001" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ70" s="5076"/>
       <c r="CR70" s="5077"/>
@@ -30967,19 +30970,19 @@
       <c r="M71" s="5093"/>
       <c r="N71" s="5094"/>
       <c r="O71" s="5095" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P71" s="5096"/>
       <c r="Q71" s="5097"/>
       <c r="R71" s="5098"/>
       <c r="S71" s="5099" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T71" s="5100"/>
       <c r="U71" s="5101"/>
       <c r="V71" s="5102"/>
       <c r="W71" s="5103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X71" s="5104"/>
       <c r="Y71" s="5105"/>
@@ -30988,137 +30991,137 @@
       <c r="AB71" s="5108"/>
       <c r="AC71" s="5109"/>
       <c r="AD71" s="5110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE71" s="5111"/>
       <c r="AF71" s="5112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG71" s="5113"/>
       <c r="AH71" s="6002" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI71" s="5115"/>
       <c r="AJ71" s="6003" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" s="5117"/>
       <c r="AL71" s="5118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM71" s="5119"/>
       <c r="AN71" s="5120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO71" s="5121"/>
       <c r="AP71" s="5122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ71" s="5123"/>
       <c r="AR71" s="6004" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS71" s="5125"/>
       <c r="AT71" s="6005" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU71" s="5127"/>
       <c r="AV71" s="6006" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW71" s="5129"/>
       <c r="AX71" s="6007" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY71" s="5131"/>
       <c r="AZ71" s="5132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA71" s="5133"/>
       <c r="BB71" s="5134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC71" s="5135"/>
       <c r="BD71" s="5136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE71" s="5137"/>
       <c r="BF71" s="5138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG71" s="5139"/>
       <c r="BH71" s="5140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI71" s="5141"/>
       <c r="BJ71" s="5142"/>
       <c r="BK71" s="5143"/>
       <c r="BL71" s="5144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM71" s="5145"/>
       <c r="BN71" s="6008" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO71" s="5147"/>
       <c r="BP71" s="6009" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ71" s="5149"/>
       <c r="BR71" s="5150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS71" s="5151"/>
       <c r="BT71" s="5152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU71" s="5153"/>
       <c r="BV71" s="5154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW71" s="5155"/>
       <c r="BX71" s="5156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY71" s="5157"/>
       <c r="BZ71" s="5158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA71" s="5159"/>
       <c r="CB71" s="6010" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC71" s="5161"/>
       <c r="CD71" s="6011" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE71" s="5163"/>
       <c r="CF71" s="5164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG71" s="5165"/>
       <c r="CH71" s="5166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI71" s="5167"/>
       <c r="CJ71" s="5168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK71" s="5169"/>
       <c r="CL71" s="5170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM71" s="5171"/>
       <c r="CN71" s="5172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO71" s="5173"/>
       <c r="CP71" s="6012" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ71" s="5175"/>
       <c r="CR71" s="5176" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS71" s="5177"/>
       <c r="CT71" s="5178"/>
@@ -31163,11 +31166,11 @@
       </c>
       <c r="AG72" s="5212"/>
       <c r="AH72" s="6002" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI72" s="5214"/>
       <c r="AJ72" s="6003" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK72" s="5216"/>
       <c r="AL72" s="5217" t="n">
@@ -31183,19 +31186,19 @@
       </c>
       <c r="AQ72" s="5222"/>
       <c r="AR72" s="6004" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS72" s="5224"/>
       <c r="AT72" s="6005" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU72" s="5226"/>
       <c r="AV72" s="6006" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW72" s="5228"/>
       <c r="AX72" s="6007" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY72" s="5230"/>
       <c r="AZ72" s="5231" t="n">
@@ -31223,11 +31226,11 @@
       </c>
       <c r="BM72" s="5244"/>
       <c r="BN72" s="6008" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO72" s="5246"/>
       <c r="BP72" s="6009" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ72" s="5248"/>
       <c r="BR72" s="5249" t="n">
@@ -31251,11 +31254,11 @@
       </c>
       <c r="CA72" s="5258"/>
       <c r="CB72" s="6010" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC72" s="5260"/>
       <c r="CD72" s="6011" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE72" s="5262"/>
       <c r="CF72" s="5263" t="n">
@@ -31279,7 +31282,7 @@
       </c>
       <c r="CO72" s="5272"/>
       <c r="CP72" s="6012" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ72" s="5274"/>
       <c r="CR72" s="5275"/>
@@ -31293,7 +31296,7 @@
       </c>
       <c r="B73" s="5280"/>
       <c r="C73" s="5281" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D73" s="5282"/>
       <c r="E73" s="5283"/>
@@ -31307,19 +31310,19 @@
       <c r="M73" s="5291"/>
       <c r="N73" s="5292"/>
       <c r="O73" s="5293" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P73" s="5294"/>
       <c r="Q73" s="5295"/>
       <c r="R73" s="5296"/>
       <c r="S73" s="5297" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T73" s="5298"/>
       <c r="U73" s="5299"/>
       <c r="V73" s="5300"/>
       <c r="W73" s="5301" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X73" s="5302"/>
       <c r="Y73" s="5303"/>
@@ -31328,137 +31331,137 @@
       <c r="AB73" s="5306"/>
       <c r="AC73" s="5307"/>
       <c r="AD73" s="5308" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE73" s="5309"/>
       <c r="AF73" s="5310" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG73" s="5311"/>
       <c r="AH73" s="6013" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI73" s="5313"/>
       <c r="AJ73" s="6014" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" s="5315"/>
       <c r="AL73" s="5316" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM73" s="5317"/>
       <c r="AN73" s="5318" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO73" s="5319"/>
       <c r="AP73" s="5320" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ73" s="5321"/>
       <c r="AR73" s="6015" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS73" s="5323"/>
       <c r="AT73" s="6016" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU73" s="5325"/>
       <c r="AV73" s="6017" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW73" s="5327"/>
       <c r="AX73" s="6018" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY73" s="5329"/>
       <c r="AZ73" s="5330" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA73" s="5331"/>
       <c r="BB73" s="5332" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC73" s="5333"/>
       <c r="BD73" s="5334" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE73" s="5335"/>
       <c r="BF73" s="5336" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG73" s="5337"/>
       <c r="BH73" s="5338" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI73" s="5339"/>
       <c r="BJ73" s="5340"/>
       <c r="BK73" s="5341"/>
       <c r="BL73" s="5342" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM73" s="5343"/>
       <c r="BN73" s="6019" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO73" s="5345"/>
       <c r="BP73" s="6020" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ73" s="5347"/>
       <c r="BR73" s="5348" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS73" s="5349"/>
       <c r="BT73" s="5350" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU73" s="5351"/>
       <c r="BV73" s="5352" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW73" s="5353"/>
       <c r="BX73" s="5354" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY73" s="5355"/>
       <c r="BZ73" s="5356" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA73" s="5357"/>
       <c r="CB73" s="6021" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC73" s="5359"/>
       <c r="CD73" s="6022" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE73" s="5361"/>
       <c r="CF73" s="5362" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG73" s="5363"/>
       <c r="CH73" s="5364" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI73" s="5365"/>
       <c r="CJ73" s="5366" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK73" s="5367"/>
       <c r="CL73" s="5368" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM73" s="5369"/>
       <c r="CN73" s="5370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO73" s="5371"/>
       <c r="CP73" s="6023" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ73" s="5373"/>
       <c r="CR73" s="5374" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CS73" s="5375"/>
       <c r="CT73" s="5376"/>
@@ -31503,11 +31506,11 @@
       </c>
       <c r="AG74" s="5410"/>
       <c r="AH74" s="6013" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI74" s="5412"/>
       <c r="AJ74" s="6014" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK74" s="5414"/>
       <c r="AL74" s="5415" t="n">
@@ -31523,19 +31526,19 @@
       </c>
       <c r="AQ74" s="5420"/>
       <c r="AR74" s="6015" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS74" s="5422"/>
       <c r="AT74" s="6016" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU74" s="5424"/>
       <c r="AV74" s="6017" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW74" s="5426"/>
       <c r="AX74" s="6018" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY74" s="5428"/>
       <c r="AZ74" s="5429" t="n">
@@ -31563,11 +31566,11 @@
       </c>
       <c r="BM74" s="5442"/>
       <c r="BN74" s="6019" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO74" s="5444"/>
       <c r="BP74" s="6020" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ74" s="5446"/>
       <c r="BR74" s="5447" t="n">
@@ -31591,11 +31594,11 @@
       </c>
       <c r="CA74" s="5456"/>
       <c r="CB74" s="6021" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC74" s="5458"/>
       <c r="CD74" s="6022" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE74" s="5460"/>
       <c r="CF74" s="5461" t="n">
@@ -31619,7 +31622,7 @@
       </c>
       <c r="CO74" s="5470"/>
       <c r="CP74" s="6023" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ74" s="5472"/>
       <c r="CR74" s="5473"/>
@@ -31633,7 +31636,7 @@
       </c>
       <c r="B75" s="5478"/>
       <c r="C75" s="5479" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D75" s="5480"/>
       <c r="E75" s="5481"/>
@@ -31647,19 +31650,19 @@
       <c r="M75" s="5489"/>
       <c r="N75" s="5490"/>
       <c r="O75" s="5491" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P75" s="5492"/>
       <c r="Q75" s="5493"/>
       <c r="R75" s="5494"/>
       <c r="S75" s="5495" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T75" s="5496"/>
       <c r="U75" s="5497"/>
       <c r="V75" s="5498"/>
       <c r="W75" s="5499" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X75" s="5500"/>
       <c r="Y75" s="5501"/>
@@ -31668,137 +31671,137 @@
       <c r="AB75" s="5504"/>
       <c r="AC75" s="5505"/>
       <c r="AD75" s="5506" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE75" s="5507"/>
       <c r="AF75" s="6024" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG75" s="5509"/>
       <c r="AH75" s="6025" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI75" s="5511"/>
       <c r="AJ75" s="6026" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" s="5513"/>
       <c r="AL75" s="5514" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM75" s="5515"/>
       <c r="AN75" s="6027" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO75" s="5517"/>
       <c r="AP75" s="6028" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AQ75" s="5519"/>
       <c r="AR75" s="6029" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS75" s="5521"/>
       <c r="AT75" s="6030" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU75" s="5523"/>
       <c r="AV75" s="6031" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW75" s="5525"/>
       <c r="AX75" s="6032" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY75" s="5527"/>
       <c r="AZ75" s="5528" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA75" s="5529"/>
       <c r="BB75" s="5530" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC75" s="5531"/>
       <c r="BD75" s="5532" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE75" s="5533"/>
       <c r="BF75" s="5534" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG75" s="5535"/>
       <c r="BH75" s="5536" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BI75" s="5537"/>
       <c r="BJ75" s="5538"/>
       <c r="BK75" s="5539"/>
       <c r="BL75" s="5540" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM75" s="5541"/>
       <c r="BN75" s="6033" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO75" s="5543"/>
       <c r="BP75" s="6034" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ75" s="5545"/>
       <c r="BR75" s="5546" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS75" s="5547"/>
       <c r="BT75" s="5548" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU75" s="5549"/>
       <c r="BV75" s="6035" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BW75" s="5551"/>
       <c r="BX75" s="6036" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BY75" s="5553"/>
       <c r="BZ75" s="5554" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA75" s="5555"/>
       <c r="CB75" s="6037" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC75" s="5557"/>
       <c r="CD75" s="6038" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE75" s="5559"/>
       <c r="CF75" s="5560" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG75" s="5561"/>
       <c r="CH75" s="5562" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI75" s="5563"/>
       <c r="CJ75" s="5564" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK75" s="5565"/>
       <c r="CL75" s="5566" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM75" s="5567"/>
       <c r="CN75" s="5568" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO75" s="5569"/>
       <c r="CP75" s="6039" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CQ75" s="5571"/>
       <c r="CR75" s="5572" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CS75" s="5573"/>
       <c r="CT75" s="5574"/>
@@ -31839,15 +31842,15 @@
       </c>
       <c r="AE76" s="6046"/>
       <c r="AF76" s="6051" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG76" s="6046"/>
       <c r="AH76" s="6051" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI76" s="6046"/>
       <c r="AJ76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK76" s="6046"/>
       <c r="AL76" s="6046" t="n">
@@ -31855,27 +31858,27 @@
       </c>
       <c r="AM76" s="6046"/>
       <c r="AN76" s="6051" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO76" s="6046"/>
       <c r="AP76" s="6051" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ76" s="6046"/>
       <c r="AR76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS76" s="6046"/>
       <c r="AT76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU76" s="6046"/>
       <c r="AV76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW76" s="6046"/>
       <c r="AX76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AY76" s="6046"/>
       <c r="AZ76" s="6046" t="n">
@@ -31903,11 +31906,11 @@
       </c>
       <c r="BM76" s="6046"/>
       <c r="BN76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BO76" s="6046"/>
       <c r="BP76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ76" s="6046"/>
       <c r="BR76" s="6046" t="n">
@@ -31919,11 +31922,11 @@
       </c>
       <c r="BU76" s="6046"/>
       <c r="BV76" s="6051" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BW76" s="6046"/>
       <c r="BX76" s="6051" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BY76" s="6046"/>
       <c r="BZ76" s="6046" t="n">
@@ -31931,11 +31934,11 @@
       </c>
       <c r="CA76" s="6046"/>
       <c r="CB76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CC76" s="6046"/>
       <c r="CD76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CE76" s="6046"/>
       <c r="CF76" s="6046" t="n">
@@ -31959,7 +31962,7 @@
       </c>
       <c r="CO76" s="6046"/>
       <c r="CP76" s="6047" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CQ76" s="6046"/>
       <c r="CR76" s="6048"/>
@@ -32706,7 +32709,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
@@ -32714,7 +32717,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G84" s="54"/>
       <c r="H84" s="54"/>
